--- a/data/Downscaleddata/pdfs/surface thetao_pdf.xlsx
+++ b/data/Downscaleddata/pdfs/surface thetao_pdf.xlsx
@@ -490,31 +490,31 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.468344212357029</v>
+        <v>4.532709216658899</v>
       </c>
       <c r="C2" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>4.109822934763434</v>
+        <v>4.227954821153292</v>
       </c>
       <c r="E2" t="n">
-        <v>6.53646605825183e-05</v>
+        <v>4.529580813392005e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>4.109822934763434</v>
+        <v>4.227954821153292</v>
       </c>
       <c r="G2" t="n">
         <v>5.100251629124843e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>4.468344212357029</v>
+        <v>4.532709216658899</v>
       </c>
       <c r="I2" t="n">
-        <v>7.306077630309389e-05</v>
+        <v>4.784754752098128e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>4.468344212357029</v>
+        <v>4.532709216658899</v>
       </c>
       <c r="K2" t="n">
         <v>4.704038532537759e-05</v>
@@ -525,31 +525,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.567866842475214</v>
+        <v>4.631908404544411</v>
       </c>
       <c r="C3" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>4.200003059855575</v>
+        <v>4.317541318675636</v>
       </c>
       <c r="E3" t="n">
-        <v>6.914695511003906e-05</v>
+        <v>4.810909817336637e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>4.200003059855575</v>
+        <v>4.317541318675636</v>
       </c>
       <c r="G3" t="n">
         <v>5.100251629124843e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>4.567866842475214</v>
+        <v>4.631908404544411</v>
       </c>
       <c r="I3" t="n">
-        <v>7.578648188749082e-05</v>
+        <v>4.784754752098128e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.567866842475214</v>
+        <v>4.631908404544411</v>
       </c>
       <c r="K3" t="n">
         <v>4.704038532537759e-05</v>
@@ -560,31 +560,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.667389472593398</v>
+        <v>4.731107592429923</v>
       </c>
       <c r="C4" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>4.290183184947717</v>
+        <v>4.407127816197979</v>
       </c>
       <c r="E4" t="n">
-        <v>7.449713025382963e-05</v>
+        <v>5.21589126721446e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>4.290183184947717</v>
+        <v>4.407127816197979</v>
       </c>
       <c r="G4" t="n">
         <v>5.100251629124843e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>4.667389472593398</v>
+        <v>4.731107592429923</v>
       </c>
       <c r="I4" t="n">
-        <v>7.983578901567511e-05</v>
+        <v>4.998969609994967e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>4.667389472593398</v>
+        <v>4.731107592429923</v>
       </c>
       <c r="K4" t="n">
         <v>4.704038532537759e-05</v>
@@ -595,31 +595,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.766912102711582</v>
+        <v>4.830306780315435</v>
       </c>
       <c r="C5" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>4.380363310039858</v>
+        <v>4.496714313720322</v>
       </c>
       <c r="E5" t="n">
-        <v>8.219617927173404e-05</v>
+        <v>5.814037371639376e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>4.380363310039858</v>
+        <v>4.496714313720322</v>
       </c>
       <c r="G5" t="n">
         <v>5.100251629124843e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>4.766912102711582</v>
+        <v>4.830306780315435</v>
       </c>
       <c r="I5" t="n">
-        <v>8.575483075413574e-05</v>
+        <v>5.330389831148695e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>4.766912102711582</v>
+        <v>4.830306780315435</v>
       </c>
       <c r="K5" t="n">
         <v>4.704038532537759e-05</v>
@@ -630,31 +630,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.866434732829767</v>
+        <v>4.929505968200946</v>
       </c>
       <c r="C6" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>4.470543435131999</v>
+        <v>4.586300811242665</v>
       </c>
       <c r="E6" t="n">
-        <v>9.479020164118284e-05</v>
+        <v>6.791365305004659e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>4.470543435131999</v>
+        <v>4.586300811242665</v>
       </c>
       <c r="G6" t="n">
         <v>5.100251629124843e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>4.866434732829767</v>
+        <v>4.929505968200946</v>
       </c>
       <c r="I6" t="n">
-        <v>9.554608875471209e-05</v>
+        <v>6.342482345033951e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>4.866434732829767</v>
+        <v>4.929505968200946</v>
       </c>
       <c r="K6" t="n">
         <v>4.704038532537759e-05</v>
@@ -665,31 +665,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.965957362947951</v>
+        <v>5.028705156086458</v>
       </c>
       <c r="C7" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>4.56072356022414</v>
+        <v>4.675887308765008</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001123126216074097</v>
+        <v>8.183592165258397e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>4.56072356022414</v>
+        <v>4.675887308765008</v>
       </c>
       <c r="G7" t="n">
         <v>5.100251629124843e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>4.965957362947951</v>
+        <v>5.028705156086458</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001148125060877059</v>
+        <v>8.178548423463131e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>4.965957362947951</v>
+        <v>5.028705156086458</v>
       </c>
       <c r="K7" t="n">
         <v>4.704038532537759e-05</v>
@@ -700,31 +700,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.065479993066136</v>
+        <v>5.12790434397197</v>
       </c>
       <c r="C8" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>4.650903685316282</v>
+        <v>4.765473806287351</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001366506518147427</v>
+        <v>0.0001012004407951396</v>
       </c>
       <c r="F8" t="n">
-        <v>4.650903685316282</v>
+        <v>4.765473806287351</v>
       </c>
       <c r="G8" t="n">
         <v>5.100251629124843e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>5.065479993066136</v>
+        <v>5.12790434397197</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001496572140325188</v>
+        <v>0.0001086870111699287</v>
       </c>
       <c r="J8" t="n">
-        <v>5.065479993066136</v>
+        <v>5.12790434397197</v>
       </c>
       <c r="K8" t="n">
         <v>4.704038532537759e-05</v>
@@ -735,31 +735,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.16500262318432</v>
+        <v>5.227103531857481</v>
       </c>
       <c r="C9" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>4.741083810408423</v>
+        <v>4.855060303809694</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001683326695514875</v>
+        <v>0.0001265742743831613</v>
       </c>
       <c r="F9" t="n">
-        <v>4.741083810408423</v>
+        <v>4.855060303809694</v>
       </c>
       <c r="G9" t="n">
         <v>5.100251629124843e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>5.16500262318432</v>
+        <v>5.227103531857481</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002002144619615821</v>
+        <v>0.0001524445811713007</v>
       </c>
       <c r="J9" t="n">
-        <v>5.16500262318432</v>
+        <v>5.227103531857481</v>
       </c>
       <c r="K9" t="n">
         <v>4.704038532537759e-05</v>
@@ -770,31 +770,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.264525253302504</v>
+        <v>5.326302719742993</v>
       </c>
       <c r="C10" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>4.831263935500564</v>
+        <v>4.944646801332036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002095805449039626</v>
+        <v>0.0001601491173949532</v>
       </c>
       <c r="F10" t="n">
-        <v>4.831263935500564</v>
+        <v>4.944646801332036</v>
       </c>
       <c r="G10" t="n">
-        <v>5.100251629124843e-05</v>
+        <v>5.111820228835055e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>5.264525253302504</v>
+        <v>5.326302719742993</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002765865916457785</v>
+        <v>0.0002161790003870666</v>
       </c>
       <c r="J10" t="n">
-        <v>5.264525253302504</v>
+        <v>5.326302719742993</v>
       </c>
       <c r="K10" t="n">
         <v>4.704038532537759e-05</v>
@@ -805,31 +805,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5.364047883420689</v>
+        <v>5.425501907628504</v>
       </c>
       <c r="C11" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>4.921444060592705</v>
+        <v>5.03423329885438</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002675713659209396</v>
+        <v>0.0002061282193879342</v>
       </c>
       <c r="F11" t="n">
-        <v>4.921444060592705</v>
+        <v>5.03423329885438</v>
       </c>
       <c r="G11" t="n">
-        <v>5.100251629124843e-05</v>
+        <v>5.249699423905263e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>5.364047883420689</v>
+        <v>5.425501907628504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003870864393899641</v>
+        <v>0.00030613883431369</v>
       </c>
       <c r="J11" t="n">
-        <v>5.364047883420689</v>
+        <v>5.425501907628504</v>
       </c>
       <c r="K11" t="n">
         <v>4.704038532537759e-05</v>
@@ -840,31 +840,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5.463570513538873</v>
+        <v>5.524701095514017</v>
       </c>
       <c r="C12" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>5.011624185684846</v>
+        <v>5.123819796376722</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0003417107061168418</v>
+        <v>0.0002659460591585052</v>
       </c>
       <c r="F12" t="n">
-        <v>5.011624185684846</v>
+        <v>5.123819796376722</v>
       </c>
       <c r="G12" t="n">
-        <v>5.207935540658565e-05</v>
+        <v>5.438212032134312e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>5.463570513538873</v>
+        <v>5.524701095514017</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0005353664142362704</v>
+        <v>0.0004319888635834278</v>
       </c>
       <c r="J12" t="n">
-        <v>5.463570513538873</v>
+        <v>5.524701095514017</v>
       </c>
       <c r="K12" t="n">
         <v>4.704038532537759e-05</v>
@@ -875,31 +875,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5.563093143657058</v>
+        <v>5.623900283399529</v>
       </c>
       <c r="C13" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>5.101804310776988</v>
+        <v>5.213406293899065</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004358021497044025</v>
+        <v>0.0003405192961389943</v>
       </c>
       <c r="F13" t="n">
-        <v>5.101804310776988</v>
+        <v>5.213406293899065</v>
       </c>
       <c r="G13" t="n">
-        <v>5.385785535759741e-05</v>
+        <v>5.69098773461437e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>5.563093143657058</v>
+        <v>5.623900283399529</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0007317363032701521</v>
+        <v>0.0005982931003133257</v>
       </c>
       <c r="J13" t="n">
-        <v>5.563093143657058</v>
+        <v>5.623900283399529</v>
       </c>
       <c r="K13" t="n">
         <v>4.704038532537759e-05</v>
@@ -910,31 +910,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.662615773775242</v>
+        <v>5.72309947128504</v>
       </c>
       <c r="C14" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>5.191984435869129</v>
+        <v>5.302992791421408</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0005506672723605863</v>
+        <v>0.0004329684484009365</v>
       </c>
       <c r="F14" t="n">
-        <v>5.191984435869129</v>
+        <v>5.302992791421408</v>
       </c>
       <c r="G14" t="n">
-        <v>5.626028787135974e-05</v>
+        <v>6.029107801104877e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>5.662615773775242</v>
+        <v>5.72309947128504</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0009865029246560379</v>
+        <v>0.0008142262028996833</v>
       </c>
       <c r="J14" t="n">
-        <v>5.662615773775242</v>
+        <v>5.72309947128504</v>
       </c>
       <c r="K14" t="n">
         <v>4.704038532537759e-05</v>
@@ -945,31 +945,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5.762138403893426</v>
+        <v>5.822298659170552</v>
       </c>
       <c r="C15" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>5.28216456096127</v>
+        <v>5.392579288943751</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0006966623602985751</v>
+        <v>0.0005458328751115577</v>
       </c>
       <c r="F15" t="n">
-        <v>5.28216456096127</v>
+        <v>5.392579288943751</v>
       </c>
       <c r="G15" t="n">
-        <v>5.944198897726578e-05</v>
+        <v>6.478549587638441e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>5.762138403893426</v>
+        <v>5.822298659170552</v>
       </c>
       <c r="I15" t="n">
-        <v>0.001317379483962916</v>
+        <v>0.001092235893374071</v>
       </c>
       <c r="J15" t="n">
-        <v>5.762138403893426</v>
+        <v>5.822298659170552</v>
       </c>
       <c r="K15" t="n">
         <v>4.704038532537759e-05</v>
@@ -980,31 +980,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5.861661034011611</v>
+        <v>5.921497847056063</v>
       </c>
       <c r="C16" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>5.372344686053412</v>
+        <v>5.482165786466094</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0008749190353733246</v>
+        <v>0.0006829365144415789</v>
       </c>
       <c r="F16" t="n">
-        <v>5.372344686053412</v>
+        <v>5.482165786466094</v>
       </c>
       <c r="G16" t="n">
-        <v>6.361004574807542e-05</v>
+        <v>7.049018884206008e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>5.861661034011611</v>
+        <v>5.921497847056063</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001740351277615258</v>
+        <v>0.00143968796854783</v>
       </c>
       <c r="J16" t="n">
-        <v>5.861661034011611</v>
+        <v>5.921497847056063</v>
       </c>
       <c r="K16" t="n">
         <v>4.704038532537759e-05</v>
@@ -1015,31 +1015,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5.961183664129796</v>
+        <v>6.020697034941575</v>
       </c>
       <c r="C17" t="n">
         <v>8.192855157485599e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>5.462524811145554</v>
+        <v>5.571752283988437</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001092113261789975</v>
+        <v>0.0008535571970365891</v>
       </c>
       <c r="F17" t="n">
-        <v>5.462524811145554</v>
+        <v>5.571752283988437</v>
       </c>
       <c r="G17" t="n">
-        <v>6.91086951740334e-05</v>
+        <v>7.759262096743403e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>5.961183664129796</v>
+        <v>6.020697034941575</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002265398373027782</v>
+        <v>0.001865545319379455</v>
       </c>
       <c r="J17" t="n">
-        <v>5.961183664129796</v>
+        <v>6.020697034941575</v>
       </c>
       <c r="K17" t="n">
         <v>4.704038532537759e-05</v>
@@ -1050,31 +1050,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.06070629424798</v>
+        <v>6.119896222827087</v>
       </c>
       <c r="C18" t="n">
-        <v>9.788516563501634e-05</v>
+        <v>0.0001352717858695154</v>
       </c>
       <c r="D18" t="n">
-        <v>5.552704936237695</v>
+        <v>5.66133878151078</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001353403354681223</v>
+        <v>0.001059122738248172</v>
       </c>
       <c r="F18" t="n">
-        <v>5.552704936237695</v>
+        <v>5.66133878151078</v>
       </c>
       <c r="G18" t="n">
-        <v>7.59913136190181e-05</v>
+        <v>8.796614270537875e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>6.06070629424798</v>
+        <v>6.119896222827087</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002906722488342482</v>
+        <v>0.002383896510116318</v>
       </c>
       <c r="J18" t="n">
-        <v>6.06070629424798</v>
+        <v>6.119896222827087</v>
       </c>
       <c r="K18" t="n">
         <v>4.704038532537759e-05</v>
@@ -1085,31 +1085,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.160228924366164</v>
+        <v>6.219095410712598</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001664187414963547</v>
+        <v>0.0002256064133043231</v>
       </c>
       <c r="D19" t="n">
-        <v>5.642885061329836</v>
+        <v>5.750925279033123</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001663323472674965</v>
+        <v>0.001305671100145792</v>
       </c>
       <c r="F19" t="n">
-        <v>5.642885061329836</v>
+        <v>5.750925279033123</v>
       </c>
       <c r="G19" t="n">
-        <v>8.528852421111206e-05</v>
+        <v>0.0001034024971652159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.160228924366164</v>
+        <v>6.219095410712598</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003677935261906783</v>
+        <v>0.003007913398721732</v>
       </c>
       <c r="J19" t="n">
-        <v>6.160228924366164</v>
+        <v>6.219095410712598</v>
       </c>
       <c r="K19" t="n">
         <v>4.704038532537759e-05</v>
@@ -1120,31 +1120,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.259751554484349</v>
+        <v>6.31829459859811</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0002791092624018501</v>
+        <v>0.0003726826972954996</v>
       </c>
       <c r="D20" t="n">
-        <v>5.733065186421977</v>
+        <v>5.840511776555466</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002029724005961363</v>
+        <v>0.001597164190616732</v>
       </c>
       <c r="F20" t="n">
-        <v>5.733065186421977</v>
+        <v>5.840511776555466</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001000155024383669</v>
+        <v>0.0001232188682709587</v>
       </c>
       <c r="H20" t="n">
-        <v>6.259751554484349</v>
+        <v>6.31829459859811</v>
       </c>
       <c r="I20" t="n">
-        <v>0.004604284916709495</v>
+        <v>0.003748532269667552</v>
       </c>
       <c r="J20" t="n">
-        <v>6.259751554484349</v>
+        <v>6.31829459859811</v>
       </c>
       <c r="K20" t="n">
         <v>4.704038532537759e-05</v>
@@ -1155,31 +1155,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.359274184602533</v>
+        <v>6.417493786483622</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0004535094130994959</v>
+        <v>0.0005943482035978879</v>
       </c>
       <c r="D21" t="n">
-        <v>5.823245311514119</v>
+        <v>5.930098274077809</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002462100132383395</v>
+        <v>0.001948505663461794</v>
       </c>
       <c r="F21" t="n">
-        <v>5.823245311514119</v>
+        <v>5.930098274077809</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001189261546435504</v>
+        <v>0.0001478488634144943</v>
       </c>
       <c r="H21" t="n">
-        <v>6.359274184602533</v>
+        <v>6.417493786483622</v>
       </c>
       <c r="I21" t="n">
-        <v>0.005696294057817007</v>
+        <v>0.004633484385688212</v>
       </c>
       <c r="J21" t="n">
-        <v>6.359274184602533</v>
+        <v>6.417493786483622</v>
       </c>
       <c r="K21" t="n">
         <v>4.704038532537759e-05</v>
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.458796814720718</v>
+        <v>6.516692974369134</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0007134692645340866</v>
+        <v>0.0009221616712016629</v>
       </c>
       <c r="D22" t="n">
-        <v>5.91342543660626</v>
+        <v>6.019684771600152</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002976804417753381</v>
+        <v>0.002363772626694923</v>
       </c>
       <c r="F22" t="n">
-        <v>5.91342543660626</v>
+        <v>6.019684771600152</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001429344410201651</v>
+        <v>0.000178405970182654</v>
       </c>
       <c r="H22" t="n">
-        <v>6.458796814720718</v>
+        <v>6.516692974369134</v>
       </c>
       <c r="I22" t="n">
-        <v>0.006976008231898452</v>
+        <v>0.005679022740412028</v>
       </c>
       <c r="J22" t="n">
-        <v>6.458796814720718</v>
+        <v>6.516692974369134</v>
       </c>
       <c r="K22" t="n">
-        <v>4.704038532537759e-05</v>
+        <v>4.708579009694856e-05</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.558319444838903</v>
+        <v>6.615892162254646</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001106180949100157</v>
+        <v>0.001404441300177657</v>
       </c>
       <c r="D23" t="n">
-        <v>6.003605561698401</v>
+        <v>6.109271269122496</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003576757438255339</v>
+        <v>0.002864458751672109</v>
       </c>
       <c r="F23" t="n">
-        <v>6.003605561698401</v>
+        <v>6.109271269122496</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001724720820855527</v>
+        <v>0.0002165386646908003</v>
       </c>
       <c r="H23" t="n">
-        <v>6.558319444838903</v>
+        <v>6.615892162254646</v>
       </c>
       <c r="I23" t="n">
-        <v>0.008468982612198632</v>
+        <v>0.006905624159576175</v>
       </c>
       <c r="J23" t="n">
-        <v>6.558319444838903</v>
+        <v>6.615892162254646</v>
       </c>
       <c r="K23" t="n">
-        <v>4.849208873451508e-05</v>
+        <v>5.091334271694527e-05</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.657842074957086</v>
+        <v>6.715091350140158</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001657583061574532</v>
+        <v>0.002069759066701247</v>
       </c>
       <c r="D24" t="n">
-        <v>6.093785686790542</v>
+        <v>6.198857766644839</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00428919994705022</v>
+        <v>0.003459382590230686</v>
       </c>
       <c r="F24" t="n">
-        <v>6.093785686790542</v>
+        <v>6.198857766644839</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002092877714055777</v>
+        <v>0.0002622601226935504</v>
       </c>
       <c r="H24" t="n">
-        <v>6.657842074957086</v>
+        <v>6.715091350140158</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01019551764680864</v>
+        <v>0.008352201045192841</v>
       </c>
       <c r="J24" t="n">
-        <v>6.657842074957086</v>
+        <v>6.715091350140158</v>
       </c>
       <c r="K24" t="n">
-        <v>5.302873370000312e-05</v>
+        <v>5.64898560304294e-05</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.757364705075272</v>
+        <v>6.814290538025669</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002434003860529762</v>
+        <v>0.003000205234383727</v>
       </c>
       <c r="D25" t="n">
-        <v>6.183965811882683</v>
+        <v>6.288444264167181</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00511735386642453</v>
+        <v>0.00417092180255079</v>
       </c>
       <c r="F25" t="n">
-        <v>6.183965811882683</v>
+        <v>6.288444264167181</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002542486554716374</v>
+        <v>0.0003177710870557653</v>
       </c>
       <c r="H25" t="n">
-        <v>6.757364705075272</v>
+        <v>6.814290538025669</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01217833635499681</v>
+        <v>0.01003920479987867</v>
       </c>
       <c r="J25" t="n">
-        <v>6.757364705075272</v>
+        <v>6.814290538025669</v>
       </c>
       <c r="K25" t="n">
-        <v>6.146170544722761e-05</v>
+        <v>6.998288199138965e-05</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.856887335193456</v>
+        <v>6.91348972591118</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003490652399300962</v>
+        <v>0.004236192539125922</v>
       </c>
       <c r="D26" t="n">
-        <v>6.274145936974825</v>
+        <v>6.378030761689525</v>
       </c>
       <c r="E26" t="n">
-        <v>0.006094539912506815</v>
+        <v>0.005015145657853239</v>
       </c>
       <c r="F26" t="n">
-        <v>6.274145936974825</v>
+        <v>6.378030761689525</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0003079177520085636</v>
+        <v>0.0003834617874670335</v>
       </c>
       <c r="H26" t="n">
-        <v>6.856887335193456</v>
+        <v>6.91348972591118</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01443744304118599</v>
+        <v>0.01199549971111258</v>
       </c>
       <c r="J26" t="n">
-        <v>6.856887335193456</v>
+        <v>6.91348972591118</v>
       </c>
       <c r="K26" t="n">
-        <v>7.751973049129247e-05</v>
+        <v>9.064204248228901e-05</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.95640996531164</v>
+        <v>7.012688913796692</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004868282708120934</v>
+        <v>0.005839178001977113</v>
       </c>
       <c r="D27" t="n">
-        <v>6.364326062066966</v>
+        <v>6.467617259211867</v>
       </c>
       <c r="E27" t="n">
-        <v>0.007227319824377292</v>
+        <v>0.00601160605028184</v>
       </c>
       <c r="F27" t="n">
-        <v>6.364326062066966</v>
+        <v>6.467617259211867</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0003727913972486634</v>
+        <v>0.0004597825195086134</v>
       </c>
       <c r="H27" t="n">
-        <v>6.95640996531164</v>
+        <v>7.012688913796692</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01700992908872899</v>
+        <v>0.01425374454712105</v>
       </c>
       <c r="J27" t="n">
-        <v>6.95640996531164</v>
+        <v>7.012688913796692</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0001029728124443368</v>
+        <v>0.0001220739012929902</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.055932595429825</v>
+        <v>7.111888101682204</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006691044739319149</v>
+        <v>0.00791183030124068</v>
       </c>
       <c r="D28" t="n">
-        <v>6.454506187159107</v>
+        <v>6.557203756734211</v>
       </c>
       <c r="E28" t="n">
-        <v>0.008547984580152983</v>
+        <v>0.007180619445622771</v>
       </c>
       <c r="F28" t="n">
-        <v>6.454506187159107</v>
+        <v>6.557203756734211</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0004481188868249567</v>
+        <v>0.0005499730697562835</v>
       </c>
       <c r="H28" t="n">
-        <v>7.055932595429825</v>
+        <v>7.111888101682204</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01989843166733737</v>
+        <v>0.01682877163835956</v>
       </c>
       <c r="J28" t="n">
-        <v>7.055932595429825</v>
+        <v>7.111888101682204</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0001399287836150223</v>
+        <v>0.0001667742298964896</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.155455225548009</v>
+        <v>7.211087289567716</v>
       </c>
       <c r="C29" t="n">
-        <v>0.008964970495657268</v>
+        <v>0.01046343756274999</v>
       </c>
       <c r="D29" t="n">
-        <v>6.544686312251249</v>
+        <v>6.646790254256553</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01006989282808787</v>
+        <v>0.008537271079084568</v>
       </c>
       <c r="F29" t="n">
-        <v>6.544686312251249</v>
+        <v>6.646790254256553</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0005362603257995875</v>
+        <v>0.0006548429223444566</v>
       </c>
       <c r="H29" t="n">
-        <v>7.155455225548009</v>
+        <v>7.211087289567716</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02312112966945118</v>
+        <v>0.01975478499379708</v>
       </c>
       <c r="J29" t="n">
-        <v>7.155455225548009</v>
+        <v>7.211087289567716</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0001914213021786831</v>
+        <v>0.0002289890868072844</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.254977855666194</v>
+        <v>7.310286477453228</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01178105096666486</v>
+        <v>0.01360926830864713</v>
       </c>
       <c r="D30" t="n">
-        <v>6.634866437343391</v>
+        <v>6.736376751778896</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01181644579672687</v>
+        <v>0.0100996936715877</v>
       </c>
       <c r="F30" t="n">
-        <v>6.634866437343391</v>
+        <v>6.736376751778896</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0006402978092244102</v>
+        <v>0.000775547044959255</v>
       </c>
       <c r="H30" t="n">
-        <v>7.254977855666194</v>
+        <v>7.310286477453228</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02670915234716656</v>
+        <v>0.02303696991713038</v>
       </c>
       <c r="J30" t="n">
-        <v>7.254977855666194</v>
+        <v>7.310286477453228</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0002634573751540308</v>
+        <v>0.0003138703907732596</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.354500485784378</v>
+        <v>7.409485665338739</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01520985671783393</v>
+        <v>0.01736786447728627</v>
       </c>
       <c r="D31" t="n">
-        <v>6.725046562435532</v>
+        <v>6.825963249301239</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01381117517856322</v>
+        <v>0.01187858853465685</v>
       </c>
       <c r="F31" t="n">
-        <v>6.725046562435532</v>
+        <v>6.825963249301239</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0007588090322458161</v>
+        <v>0.0009128712471760422</v>
       </c>
       <c r="H31" t="n">
-        <v>7.354500485784378</v>
+        <v>7.409485665338739</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03064476152133369</v>
+        <v>0.02668770746099266</v>
       </c>
       <c r="J31" t="n">
-        <v>7.354500485784378</v>
+        <v>7.409485665338739</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0003594409432008431</v>
+        <v>0.0004282056963539422</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.454023115902563</v>
+        <v>7.508684853224251</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01924457906858979</v>
+        <v>0.02176254731315865</v>
       </c>
       <c r="D32" t="n">
-        <v>6.815226687527673</v>
+        <v>6.915549746823582</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01606073085547362</v>
+        <v>0.01388744980662036</v>
       </c>
       <c r="F32" t="n">
-        <v>6.815226687527673</v>
+        <v>6.915549746823582</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0008956362736857355</v>
+        <v>0.001064889554720974</v>
       </c>
       <c r="H32" t="n">
-        <v>7.454023115902563</v>
+        <v>7.508684853224251</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03493796544518477</v>
+        <v>0.030717761361498</v>
       </c>
       <c r="J32" t="n">
-        <v>7.454023115902563</v>
+        <v>7.508684853224251</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0004919176927883216</v>
+        <v>0.0005808435637257203</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.553545746020747</v>
+        <v>7.607884041109763</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02400761838315511</v>
+        <v>0.02689577710435357</v>
       </c>
       <c r="D33" t="n">
-        <v>6.905406812619814</v>
+        <v>7.005136244345925</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01859895059022916</v>
+        <v>0.0161323384411879</v>
       </c>
       <c r="F33" t="n">
-        <v>6.905406812619814</v>
+        <v>7.005136244345925</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001047116172935758</v>
+        <v>0.001237421349052337</v>
       </c>
       <c r="H33" t="n">
-        <v>7.553545746020747</v>
+        <v>7.607884041109763</v>
       </c>
       <c r="I33" t="n">
-        <v>0.03959633792361675</v>
+        <v>0.03512946420974968</v>
       </c>
       <c r="J33" t="n">
-        <v>7.553545746020747</v>
+        <v>7.607884041109763</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0006641667439146196</v>
+        <v>0.00077707329536564</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.653068376138931</v>
+        <v>7.707083228995275</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02944979174958999</v>
+        <v>0.03269452326935335</v>
       </c>
       <c r="D34" t="n">
-        <v>6.995586937711955</v>
+        <v>7.094722741868268</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02141633465818961</v>
+        <v>0.01862168089218962</v>
       </c>
       <c r="F34" t="n">
-        <v>6.995586937711955</v>
+        <v>7.094722741868268</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001218018359752117</v>
+        <v>0.00142960376564968</v>
       </c>
       <c r="H34" t="n">
-        <v>7.653068376138931</v>
+        <v>7.707083228995275</v>
       </c>
       <c r="I34" t="n">
-        <v>0.04459146898515264</v>
+        <v>0.03991523447054</v>
       </c>
       <c r="J34" t="n">
-        <v>7.653068376138931</v>
+        <v>7.707083228995275</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0008832207146113166</v>
+        <v>0.001023718349993667</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.752591006257116</v>
+        <v>7.806282416880786</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03559565812770974</v>
+        <v>0.03922682934871227</v>
       </c>
       <c r="D35" t="n">
-        <v>7.085767062804097</v>
+        <v>7.184309239390611</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0245465390298504</v>
+        <v>0.0213613321461182</v>
       </c>
       <c r="F35" t="n">
-        <v>7.085767062804097</v>
+        <v>7.184309239390611</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001409715707789641</v>
+        <v>0.001641699145208664</v>
       </c>
       <c r="H35" t="n">
-        <v>7.752591006257116</v>
+        <v>7.806282416880786</v>
       </c>
       <c r="I35" t="n">
-        <v>0.04991978045507008</v>
+        <v>0.04506572305551045</v>
       </c>
       <c r="J35" t="n">
-        <v>7.752591006257116</v>
+        <v>7.806282416880786</v>
       </c>
       <c r="K35" t="n">
-        <v>0.001155582301511148</v>
+        <v>0.001326106538878716</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.8521136363753</v>
+        <v>7.905481604766297</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0424874738746301</v>
+        <v>0.04645574895854956</v>
       </c>
       <c r="D36" t="n">
-        <v>7.175947187896238</v>
+        <v>7.273895736912954</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02797447243341816</v>
+        <v>0.02435206143239927</v>
       </c>
       <c r="F36" t="n">
-        <v>7.175947187896238</v>
+        <v>7.273895736912954</v>
       </c>
       <c r="G36" t="n">
-        <v>0.00162072796285718</v>
+        <v>0.001876734351568249</v>
       </c>
       <c r="H36" t="n">
-        <v>7.8521136363753</v>
+        <v>7.905481604766297</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05555446814988495</v>
+        <v>0.05058348044872062</v>
       </c>
       <c r="J36" t="n">
-        <v>7.8521136363753</v>
+        <v>7.905481604766297</v>
       </c>
       <c r="K36" t="n">
-        <v>0.001486336349409713</v>
+        <v>0.001692397122406968</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.951636266493485</v>
+        <v>8.00468079265181</v>
       </c>
       <c r="C37" t="n">
-        <v>0.05002942175563185</v>
+        <v>0.05431911714683023</v>
       </c>
       <c r="D37" t="n">
-        <v>7.266127312988379</v>
+        <v>7.363482234435297</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03172161973401137</v>
+        <v>0.02760542627494621</v>
       </c>
       <c r="F37" t="n">
-        <v>7.266127312988379</v>
+        <v>7.363482234435297</v>
       </c>
       <c r="G37" t="n">
-        <v>0.001855054744384143</v>
+        <v>0.002138923035353382</v>
       </c>
       <c r="H37" t="n">
-        <v>7.951636266493485</v>
+        <v>8.00468079265181</v>
       </c>
       <c r="I37" t="n">
-        <v>0.06147116429852744</v>
+        <v>0.056433434281463</v>
       </c>
       <c r="J37" t="n">
-        <v>7.951636266493485</v>
+        <v>8.00468079265181</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001885656255271311</v>
+        <v>0.002123796870289909</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8.051158896611669</v>
+        <v>8.103879980537322</v>
       </c>
       <c r="C38" t="n">
-        <v>0.05825120398889831</v>
+        <v>0.06284612184118285</v>
       </c>
       <c r="D38" t="n">
-        <v>7.35630743808052</v>
+        <v>7.45306873195764</v>
       </c>
       <c r="E38" t="n">
-        <v>0.03577542465049441</v>
+        <v>0.03112084466172313</v>
       </c>
       <c r="F38" t="n">
-        <v>7.35630743808052</v>
+        <v>7.45306873195764</v>
       </c>
       <c r="G38" t="n">
-        <v>0.002117195095762385</v>
+        <v>0.002431358110500074</v>
       </c>
       <c r="H38" t="n">
-        <v>8.051158896611669</v>
+        <v>8.103879980537322</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0676367279256448</v>
+        <v>0.06259485703081079</v>
       </c>
       <c r="J38" t="n">
-        <v>8.051158896611669</v>
+        <v>8.103879980537322</v>
       </c>
       <c r="K38" t="n">
-        <v>0.002347740075703933</v>
+        <v>0.002620551166476093</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>8.150681526729853</v>
+        <v>8.203079168422834</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06704536282239736</v>
+        <v>0.07187102758428254</v>
       </c>
       <c r="D39" t="n">
-        <v>7.446487563172662</v>
+        <v>7.542655229479983</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0401425998903395</v>
+        <v>0.03490500070365156</v>
       </c>
       <c r="F39" t="n">
-        <v>7.446487563172662</v>
+        <v>7.542655229479983</v>
       </c>
       <c r="G39" t="n">
-        <v>0.002408749652423469</v>
+        <v>0.002761783942233285</v>
       </c>
       <c r="H39" t="n">
-        <v>8.150681526729853</v>
+        <v>8.203079168422834</v>
       </c>
       <c r="I39" t="n">
-        <v>0.07400259329343904</v>
+        <v>0.06903695488699947</v>
       </c>
       <c r="J39" t="n">
-        <v>8.150681526729853</v>
+        <v>8.203079168422834</v>
       </c>
       <c r="K39" t="n">
-        <v>0.002876279821458847</v>
+        <v>0.00318027611714255</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>8.250204156848039</v>
+        <v>8.302278356308346</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07631143940008649</v>
+        <v>0.08132726502506397</v>
       </c>
       <c r="D40" t="n">
-        <v>7.536667688264803</v>
+        <v>7.632241727002326</v>
       </c>
       <c r="E40" t="n">
-        <v>0.04480338597551212</v>
+        <v>0.03896857369896196</v>
       </c>
       <c r="F40" t="n">
-        <v>7.536667688264803</v>
+        <v>7.632241727002326</v>
       </c>
       <c r="G40" t="n">
-        <v>0.002738111241197054</v>
+        <v>0.003136851400121926</v>
       </c>
       <c r="H40" t="n">
-        <v>8.250204156848039</v>
+        <v>8.302278356308346</v>
       </c>
       <c r="I40" t="n">
-        <v>0.08053102740426533</v>
+        <v>0.07571670256560757</v>
       </c>
       <c r="J40" t="n">
-        <v>8.250204156848039</v>
+        <v>8.302278356308346</v>
       </c>
       <c r="K40" t="n">
-        <v>0.003470133870149199</v>
+        <v>0.00380512515451689</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>8.349726786966222</v>
+        <v>8.401477544193856</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08595874435881458</v>
+        <v>0.09105351883661136</v>
       </c>
       <c r="D41" t="n">
-        <v>7.626847813356944</v>
+        <v>7.721828224524669</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04975676738280718</v>
+        <v>0.04330082499399514</v>
       </c>
       <c r="F41" t="n">
-        <v>7.626847813356944</v>
+        <v>7.721828224524669</v>
       </c>
       <c r="G41" t="n">
-        <v>0.003112552215959261</v>
+        <v>0.003561972071972306</v>
       </c>
       <c r="H41" t="n">
-        <v>8.349726786966222</v>
+        <v>8.401477544193856</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0871582824730698</v>
+        <v>0.08258173898539495</v>
       </c>
       <c r="J41" t="n">
-        <v>8.349726786966222</v>
+        <v>8.401477544193856</v>
       </c>
       <c r="K41" t="n">
-        <v>0.004123664070865846</v>
+        <v>0.004488003172146388</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>8.449249417084406</v>
+        <v>8.500676732079368</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09577881696100256</v>
+        <v>0.1008677735208075</v>
       </c>
       <c r="D42" t="n">
-        <v>7.717027938449085</v>
+        <v>7.811414722047012</v>
       </c>
       <c r="E42" t="n">
-        <v>0.05497276871604959</v>
+        <v>0.04792438819778506</v>
       </c>
       <c r="F42" t="n">
-        <v>7.717027938449085</v>
+        <v>7.811414722047012</v>
       </c>
       <c r="G42" t="n">
-        <v>0.003538033045592934</v>
+        <v>0.004050863926373749</v>
       </c>
       <c r="H42" t="n">
-        <v>8.449249417084406</v>
+        <v>8.500676732079368</v>
       </c>
       <c r="I42" t="n">
-        <v>0.09382685648907062</v>
+        <v>0.08957256123533075</v>
       </c>
       <c r="J42" t="n">
-        <v>8.449249417084406</v>
+        <v>8.500676732079368</v>
       </c>
       <c r="K42" t="n">
-        <v>0.004840063711581841</v>
+        <v>0.005232879930102153</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>8.548772047202592</v>
+        <v>8.59987591996488</v>
       </c>
       <c r="C43" t="n">
-        <v>0.1055889145391154</v>
+        <v>0.1105388385935112</v>
       </c>
       <c r="D43" t="n">
-        <v>7.807208063541227</v>
+        <v>7.901001219569356</v>
       </c>
       <c r="E43" t="n">
-        <v>0.06043916390881755</v>
+        <v>0.05280856699120294</v>
       </c>
       <c r="F43" t="n">
-        <v>7.807208063541227</v>
+        <v>7.901001219569356</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004025895291049953</v>
+        <v>0.004616246533167741</v>
       </c>
       <c r="H43" t="n">
-        <v>8.548772047202592</v>
+        <v>8.59987591996488</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1004659860572746</v>
+        <v>0.09662950337499221</v>
       </c>
       <c r="J43" t="n">
-        <v>8.548772047202592</v>
+        <v>8.59987591996488</v>
       </c>
       <c r="K43" t="n">
-        <v>0.005615212573607278</v>
+        <v>0.006038483821951661</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>8.648294677320775</v>
+        <v>8.699075107850392</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1151400583397366</v>
+        <v>0.1198477415900205</v>
       </c>
       <c r="D44" t="n">
-        <v>7.897388188633368</v>
+        <v>7.990587717091698</v>
       </c>
       <c r="E44" t="n">
-        <v>0.06612030571419426</v>
+        <v>0.05797291225700733</v>
       </c>
       <c r="F44" t="n">
-        <v>7.897388188633368</v>
+        <v>7.990587717091698</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0045918105757597</v>
+        <v>0.005262293215107207</v>
       </c>
       <c r="H44" t="n">
-        <v>8.648294677320775</v>
+        <v>8.699075107850392</v>
       </c>
       <c r="I44" t="n">
-        <v>0.1069963076834166</v>
+        <v>0.103664361356248</v>
       </c>
       <c r="J44" t="n">
-        <v>8.648294677320775</v>
+        <v>8.699075107850392</v>
       </c>
       <c r="K44" t="n">
-        <v>0.006453531772900177</v>
+        <v>0.006909485282193427</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>8.747817307438961</v>
+        <v>8.798274295735904</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1242321068069371</v>
+        <v>0.1285436545725421</v>
       </c>
       <c r="D45" t="n">
-        <v>7.987568313725509</v>
+        <v>8.080174214614042</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0719802967837205</v>
+        <v>0.06337425057076146</v>
       </c>
       <c r="F45" t="n">
-        <v>7.987568313725509</v>
+        <v>8.080174214614042</v>
       </c>
       <c r="G45" t="n">
-        <v>0.005239564009080481</v>
+        <v>0.006009530114193222</v>
       </c>
       <c r="H45" t="n">
-        <v>8.747817307438961</v>
+        <v>8.798274295735904</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1133538649959275</v>
+        <v>0.1106022792090733</v>
       </c>
       <c r="J45" t="n">
-        <v>8.747817307438961</v>
+        <v>8.798274295735904</v>
       </c>
       <c r="K45" t="n">
-        <v>0.007365347032172303</v>
+        <v>0.007856016664304112</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>8.847339937557145</v>
+        <v>8.897473483621415</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1325230954790765</v>
+        <v>0.1363616859663155</v>
       </c>
       <c r="D46" t="n">
-        <v>8.07774843881765</v>
+        <v>8.169760712136384</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07798614017675939</v>
+        <v>0.06900940147805366</v>
       </c>
       <c r="F46" t="n">
-        <v>8.07774843881765</v>
+        <v>8.169760712136384</v>
       </c>
       <c r="G46" t="n">
-        <v>0.005987732906807716</v>
+        <v>0.006860137639138559</v>
       </c>
       <c r="H46" t="n">
-        <v>8.847339937557145</v>
+        <v>8.897473483621415</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1194470331474989</v>
+        <v>0.1173538268849382</v>
       </c>
       <c r="J46" t="n">
-        <v>8.847339937557145</v>
+        <v>8.897473483621415</v>
       </c>
       <c r="K46" t="n">
-        <v>0.008355357113301404</v>
+        <v>0.008889643822767265</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>8.946862567675328</v>
+        <v>8.996672671506927</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1398999448307911</v>
+        <v>0.1432074566352745</v>
       </c>
       <c r="D47" t="n">
-        <v>8.167928563909792</v>
+        <v>8.259347209658728</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08408123977328091</v>
+        <v>0.07482980759399421</v>
       </c>
       <c r="F47" t="n">
-        <v>8.167928563909792</v>
+        <v>8.259347209658728</v>
       </c>
       <c r="G47" t="n">
-        <v>0.006841612105174704</v>
+        <v>0.007829150431350827</v>
       </c>
       <c r="H47" t="n">
-        <v>8.946862567675328</v>
+        <v>8.996672671506927</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1252006948987426</v>
+        <v>0.1238151824289257</v>
       </c>
       <c r="J47" t="n">
-        <v>8.946862567675328</v>
+        <v>8.996672671506927</v>
       </c>
       <c r="K47" t="n">
-        <v>0.009445133207446344</v>
+        <v>0.01003076586672828</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.046385197793514</v>
+        <v>9.095871859392439</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1461673110995005</v>
+        <v>0.1488058395136819</v>
       </c>
       <c r="D48" t="n">
-        <v>8.258108689001933</v>
+        <v>8.34893370718107</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09022548347720569</v>
+        <v>0.08080507122542203</v>
       </c>
       <c r="F48" t="n">
-        <v>8.258108689001933</v>
+        <v>8.34893370718107</v>
       </c>
       <c r="G48" t="n">
-        <v>0.007814872894789892</v>
+        <v>0.008925421050255133</v>
       </c>
       <c r="H48" t="n">
-        <v>9.046385197793514</v>
+        <v>9.095871859392439</v>
       </c>
       <c r="I48" t="n">
-        <v>0.1305671142511617</v>
+        <v>0.1298943453763536</v>
       </c>
       <c r="J48" t="n">
-        <v>9.046385197793514</v>
+        <v>9.095871859392439</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0106497289516569</v>
+        <v>0.01129839892186613</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.145907827911698</v>
+        <v>9.195071047277951</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1511849452704072</v>
+        <v>0.1532422457031495</v>
       </c>
       <c r="D49" t="n">
-        <v>8.348288814094074</v>
+        <v>8.438520204703412</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09635311474762658</v>
+        <v>0.086878086121355</v>
       </c>
       <c r="F49" t="n">
-        <v>8.348288814094074</v>
+        <v>8.438520204703412</v>
       </c>
       <c r="G49" t="n">
-        <v>0.008916997593268302</v>
+        <v>0.01015812466276556</v>
       </c>
       <c r="H49" t="n">
-        <v>9.145907827911698</v>
+        <v>9.195071047277951</v>
       </c>
       <c r="I49" t="n">
-        <v>0.135462827968412</v>
+        <v>0.1355157061818078</v>
       </c>
       <c r="J49" t="n">
-        <v>9.145907827911698</v>
+        <v>9.195071047277951</v>
       </c>
       <c r="K49" t="n">
-        <v>0.01199263023294154</v>
+        <v>0.01271448576951131</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.245430458029883</v>
+        <v>9.294270235163463</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1550636392851293</v>
+        <v>0.1565190181179028</v>
       </c>
       <c r="D50" t="n">
-        <v>8.438468939186215</v>
+        <v>8.528106702225756</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1024159878814059</v>
+        <v>0.09300274968489501</v>
       </c>
       <c r="F50" t="n">
-        <v>8.438468939186215</v>
+        <v>8.528106702225756</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01015738643132827</v>
+        <v>0.01154003828396824</v>
       </c>
       <c r="H50" t="n">
-        <v>9.245430458029883</v>
+        <v>9.294270235163463</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1398571374279464</v>
+        <v>0.1405854694469967</v>
       </c>
       <c r="J50" t="n">
-        <v>9.245430458029883</v>
+        <v>9.294270235163463</v>
       </c>
       <c r="K50" t="n">
-        <v>0.01349378077885933</v>
+        <v>0.01429963946497489</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.344953088148067</v>
+        <v>9.393469423048973</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1577506361967961</v>
+        <v>0.1587097065713118</v>
       </c>
       <c r="D51" t="n">
-        <v>8.528649064278357</v>
+        <v>8.6176931997481</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1083431429670864</v>
+        <v>0.0991061908291323</v>
       </c>
       <c r="F51" t="n">
-        <v>8.528649064278357</v>
+        <v>8.6176931997481</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01154885384873926</v>
+        <v>0.01307393155580686</v>
       </c>
       <c r="H51" t="n">
-        <v>9.344953088148067</v>
+        <v>9.393469423048973</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1437433336764889</v>
+        <v>0.1450417667753612</v>
       </c>
       <c r="J51" t="n">
-        <v>9.344953088148067</v>
+        <v>9.393469423048973</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01518043874941874</v>
+        <v>0.01607275230062629</v>
       </c>
     </row>
     <row r="52">
@@ -2240,34 +2240,34 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.444475718266251</v>
+        <v>9.492668610934485</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1595104493393532</v>
+        <v>0.1600965834192094</v>
       </c>
       <c r="D52" t="n">
-        <v>8.618829189370498</v>
+        <v>8.707279697270442</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1140841772663028</v>
+        <v>0.1051399440737226</v>
       </c>
       <c r="F52" t="n">
-        <v>8.618829189370498</v>
+        <v>8.707279697270442</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01309466369071718</v>
+        <v>0.01478022773278246</v>
       </c>
       <c r="H52" t="n">
-        <v>9.444475718266251</v>
+        <v>9.492668610934485</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1470869735502275</v>
+        <v>0.1488633784378904</v>
       </c>
       <c r="J52" t="n">
-        <v>9.444475718266251</v>
+        <v>9.492668610934485</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01706138995290431</v>
+        <v>0.01804822256940448</v>
       </c>
     </row>
     <row r="53">
@@ -2275,34 +2275,34 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.543998348384436</v>
+        <v>9.591867798819997</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1605396077724193</v>
+        <v>0.1608233551710137</v>
       </c>
       <c r="D53" t="n">
-        <v>8.709009314462639</v>
+        <v>8.796866194792784</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1195716684128844</v>
+        <v>0.111024061077215</v>
       </c>
       <c r="F53" t="n">
-        <v>8.709009314462639</v>
+        <v>8.796866194792784</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01481473470054427</v>
+        <v>0.01665448939416014</v>
       </c>
       <c r="H53" t="n">
-        <v>9.543998348384436</v>
+        <v>9.591867798819997</v>
       </c>
       <c r="I53" t="n">
-        <v>0.149940371934344</v>
+        <v>0.1520578773273747</v>
       </c>
       <c r="J53" t="n">
-        <v>9.543998348384436</v>
+        <v>9.591867798819997</v>
       </c>
       <c r="K53" t="n">
-        <v>0.01915545143268046</v>
+        <v>0.02023584213305127</v>
       </c>
     </row>
     <row r="54">
@@ -2310,34 +2310,34 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9.64352097850262</v>
+        <v>9.691066986705509</v>
       </c>
       <c r="C54" t="n">
-        <v>0.161045224391774</v>
+        <v>0.1611910497283732</v>
       </c>
       <c r="D54" t="n">
-        <v>8.79918943955478</v>
+        <v>8.886452692315128</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1247520371405902</v>
+        <v>0.1167093733931905</v>
       </c>
       <c r="F54" t="n">
-        <v>8.79918943955478</v>
+        <v>8.886452692315128</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01670571110144911</v>
+        <v>0.01871387517167812</v>
       </c>
       <c r="H54" t="n">
-        <v>9.64352097850262</v>
+        <v>9.691066986705509</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1523448368842223</v>
+        <v>0.1546173455443559</v>
       </c>
       <c r="J54" t="n">
-        <v>9.64352097850262</v>
+        <v>9.691066986705509</v>
       </c>
       <c r="K54" t="n">
-        <v>0.02146326893266737</v>
+        <v>0.02263929783078046</v>
       </c>
     </row>
     <row r="55">
@@ -2345,34 +2345,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.743043608620805</v>
+        <v>9.790266174591022</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1613085190326961</v>
+        <v>0.1613979063979957</v>
       </c>
       <c r="D55" t="n">
-        <v>8.889369564646922</v>
+        <v>8.976039189837472</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1295823355601494</v>
+        <v>0.1221334679559022</v>
       </c>
       <c r="F55" t="n">
-        <v>8.889369564646922</v>
+        <v>8.976039189837472</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01878307800194122</v>
+        <v>0.02096441591702733</v>
       </c>
       <c r="H55" t="n">
-        <v>9.743043608620805</v>
+        <v>9.790266174591022</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1543453611162821</v>
+        <v>0.1566389671797286</v>
       </c>
       <c r="J55" t="n">
-        <v>9.743043608620805</v>
+        <v>9.790266174591022</v>
       </c>
       <c r="K55" t="n">
-        <v>0.023983916798803</v>
+        <v>0.02525929569986931</v>
       </c>
     </row>
     <row r="56">
@@ -2380,34 +2380,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.842566238738989</v>
+        <v>9.889465362476532</v>
       </c>
       <c r="C56" t="n">
-        <v>0.161504957069994</v>
+        <v>0.1616216452607605</v>
       </c>
       <c r="D56" t="n">
-        <v>8.979549689739063</v>
+        <v>9.065625687359814</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1340078457862854</v>
+        <v>0.1272417068544895</v>
       </c>
       <c r="F56" t="n">
-        <v>8.979549689739063</v>
+        <v>9.065625687359814</v>
       </c>
       <c r="G56" t="n">
-        <v>0.02105792018761607</v>
+        <v>0.02342434783444113</v>
       </c>
       <c r="H56" t="n">
-        <v>9.842566238738989</v>
+        <v>9.889465362476532</v>
       </c>
       <c r="I56" t="n">
-        <v>0.1560465283187088</v>
+        <v>0.1581947886643399</v>
       </c>
       <c r="J56" t="n">
-        <v>9.842566238738989</v>
+        <v>9.889465362476532</v>
       </c>
       <c r="K56" t="n">
-        <v>0.02672031368943013</v>
+        <v>0.0280777311156639</v>
       </c>
     </row>
     <row r="57">
@@ -2415,34 +2415,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.942088868857173</v>
+        <v>9.988664550362046</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1617833892843888</v>
+        <v>0.1619576777766425</v>
       </c>
       <c r="D57" t="n">
-        <v>9.069729814831206</v>
+        <v>9.155212184882156</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1380180866741688</v>
+        <v>0.1320119995461252</v>
       </c>
       <c r="F57" t="n">
-        <v>9.069729814831206</v>
+        <v>9.155212184882156</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0235430285988129</v>
+        <v>0.02609398975336517</v>
       </c>
       <c r="H57" t="n">
-        <v>9.942088868857173</v>
+        <v>9.988664550362046</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1575230052975556</v>
+        <v>0.159360269853405</v>
       </c>
       <c r="J57" t="n">
-        <v>9.942088868857173</v>
+        <v>9.988664550362046</v>
       </c>
       <c r="K57" t="n">
-        <v>0.02965083789592433</v>
+        <v>0.03109100566722156</v>
       </c>
     </row>
     <row r="58">
@@ -2450,34 +2450,34 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>10.04161149897536</v>
+        <v>10.08786373824756</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1621994447728205</v>
+        <v>0.162452291148006</v>
       </c>
       <c r="D58" t="n">
-        <v>9.159909939923345</v>
+        <v>9.2447986824045</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1415796875019301</v>
+        <v>0.1363941532192613</v>
       </c>
       <c r="F58" t="n">
-        <v>9.159909939923345</v>
+        <v>9.2447986824045</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02623946399106509</v>
+        <v>0.02897311377375805</v>
       </c>
       <c r="H58" t="n">
-        <v>10.04161149897536</v>
+        <v>10.08786373824756</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1588553400418585</v>
+        <v>0.1602695635001956</v>
       </c>
       <c r="J58" t="n">
-        <v>10.04161149897536</v>
+        <v>10.08786373824756</v>
       </c>
       <c r="K58" t="n">
-        <v>0.03277280904833419</v>
+        <v>0.03427783656277961</v>
       </c>
     </row>
     <row r="59">
@@ -2485,34 +2485,34 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>10.14113412909354</v>
+        <v>10.18706292613307</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1627709763477848</v>
+        <v>0.1630645028426921</v>
       </c>
       <c r="D59" t="n">
-        <v>9.250090065015488</v>
+        <v>9.334385179926842</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1447102612356783</v>
+        <v>0.1404082003902455</v>
       </c>
       <c r="F59" t="n">
-        <v>9.250090065015488</v>
+        <v>9.334385179926842</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02914862264236912</v>
+        <v>0.03207659542895284</v>
       </c>
       <c r="H59" t="n">
-        <v>10.14113412909354</v>
+        <v>10.18706292613307</v>
       </c>
       <c r="I59" t="n">
-        <v>0.160127305756299</v>
+        <v>0.1609953526539283</v>
       </c>
       <c r="J59" t="n">
-        <v>10.14113412909354</v>
+        <v>10.18706292613307</v>
       </c>
       <c r="K59" t="n">
-        <v>0.03605622038761096</v>
+        <v>0.03762372671352533</v>
       </c>
     </row>
     <row r="60">
@@ -2520,34 +2520,34 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>10.24065675921173</v>
+        <v>10.28626211401858</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1634193093906152</v>
+        <v>0.1637223610257103</v>
       </c>
       <c r="D60" t="n">
-        <v>9.340270190107628</v>
+        <v>9.423971677449185</v>
       </c>
       <c r="E60" t="n">
-        <v>0.147419311605634</v>
+        <v>0.1440303733237257</v>
       </c>
       <c r="F60" t="n">
-        <v>9.340270190107628</v>
+        <v>9.423971677449185</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03228801742544268</v>
+        <v>0.03539926805233834</v>
       </c>
       <c r="H60" t="n">
-        <v>10.24065675921173</v>
+        <v>10.28626211401858</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1613925803681012</v>
+        <v>0.1616222003514488</v>
       </c>
       <c r="J60" t="n">
-        <v>10.24065675921173</v>
+        <v>10.28626211401858</v>
       </c>
       <c r="K60" t="n">
-        <v>0.03949505337405126</v>
+        <v>0.04111623587207257</v>
       </c>
     </row>
     <row r="61">
@@ -2555,34 +2555,34 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>10.34017938932991</v>
+        <v>10.38546130190409</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1640620844982212</v>
+        <v>0.1643208360210437</v>
       </c>
       <c r="D61" t="n">
-        <v>9.430450315199771</v>
+        <v>9.513558174971529</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1497429987726368</v>
+        <v>0.1473034896117504</v>
       </c>
       <c r="F61" t="n">
-        <v>9.430450315199771</v>
+        <v>9.513558174971529</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03564832672905302</v>
+        <v>0.03894446424823992</v>
       </c>
       <c r="H61" t="n">
-        <v>10.34017938932991</v>
+        <v>10.38546130190409</v>
       </c>
       <c r="I61" t="n">
-        <v>0.1626953296167736</v>
+        <v>0.16220930948147</v>
       </c>
       <c r="J61" t="n">
-        <v>10.34017938932991</v>
+        <v>10.38546130190409</v>
       </c>
       <c r="K61" t="n">
-        <v>0.04306162226928736</v>
+        <v>0.04472581369563136</v>
       </c>
     </row>
     <row r="62">
@@ -2590,34 +2590,34 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>10.4397020194481</v>
+        <v>10.4846604897896</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1645923049262503</v>
+        <v>0.1647799942094836</v>
       </c>
       <c r="D62" t="n">
-        <v>9.52063044029191</v>
+        <v>9.603144672493872</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1517327840332617</v>
+        <v>0.1502379418386495</v>
       </c>
       <c r="F62" t="n">
-        <v>9.52063044029191</v>
+        <v>9.603144672493872</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03923654737600731</v>
+        <v>0.04270584191112208</v>
       </c>
       <c r="H62" t="n">
-        <v>10.4397020194481</v>
+        <v>10.4846604897896</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1640464819395692</v>
+        <v>0.1627925461066755</v>
       </c>
       <c r="J62" t="n">
-        <v>10.4397020194481</v>
+        <v>10.4846604897896</v>
       </c>
       <c r="K62" t="n">
-        <v>0.04675343989648537</v>
+        <v>0.04845444176102011</v>
       </c>
     </row>
     <row r="63">
@@ -2625,34 +2625,34 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10.53922464956628</v>
+        <v>10.58385967767511</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1649487226948399</v>
+        <v>0.1650272343912581</v>
       </c>
       <c r="D63" t="n">
-        <v>9.610810565384053</v>
+        <v>9.692731170016215</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1534415103016334</v>
+        <v>0.1528825794336344</v>
       </c>
       <c r="F63" t="n">
-        <v>9.610810565384053</v>
+        <v>9.692731170016215</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04303640558135922</v>
+        <v>0.04666251159722049</v>
       </c>
       <c r="H63" t="n">
-        <v>10.53922464956628</v>
+        <v>10.58385967767511</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1654504379016219</v>
+        <v>0.1633735632381773</v>
       </c>
       <c r="J63" t="n">
-        <v>10.53922464956628</v>
+        <v>10.58385967767511</v>
       </c>
       <c r="K63" t="n">
-        <v>0.05054261397783261</v>
+        <v>0.05227651384758983</v>
       </c>
     </row>
     <row r="64">
@@ -2660,34 +2660,34 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10.63874727968446</v>
+        <v>10.68305886556063</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1650676407327536</v>
+        <v>0.1650562627517628</v>
       </c>
       <c r="D64" t="n">
-        <v>9.700990690476193</v>
+        <v>9.782317667538557</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1549358634389692</v>
+        <v>0.1552706616009353</v>
       </c>
       <c r="F64" t="n">
-        <v>9.700990690476193</v>
+        <v>9.782317667538557</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04703551742261684</v>
+        <v>0.0508057767885039</v>
       </c>
       <c r="H64" t="n">
-        <v>10.63874727968446</v>
+        <v>10.68305886556063</v>
       </c>
       <c r="I64" t="n">
-        <v>0.166882557631929</v>
+        <v>0.1639654769503701</v>
       </c>
       <c r="J64" t="n">
-        <v>10.63874727968446</v>
+        <v>10.68305886556063</v>
       </c>
       <c r="K64" t="n">
-        <v>0.05443056740284182</v>
+        <v>0.05618535127546571</v>
       </c>
     </row>
     <row r="65">
@@ -2695,34 +2695,34 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>10.73826990980265</v>
+        <v>10.78225805344614</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1649952560486602</v>
+        <v>0.1649190561870919</v>
       </c>
       <c r="D65" t="n">
-        <v>9.791170815568336</v>
+        <v>9.871904165060901</v>
       </c>
       <c r="E65" t="n">
-        <v>0.156286305261462</v>
+        <v>0.1574412754071611</v>
       </c>
       <c r="F65" t="n">
-        <v>9.791170815568336</v>
+        <v>9.871904165060901</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05122365535481769</v>
+        <v>0.05512250135768451</v>
       </c>
       <c r="H65" t="n">
-        <v>10.73826990980265</v>
+        <v>10.78225805344614</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1683149201611074</v>
+        <v>0.1645403814535797</v>
       </c>
       <c r="J65" t="n">
-        <v>10.73826990980265</v>
+        <v>10.78225805344614</v>
       </c>
       <c r="K65" t="n">
-        <v>0.05839945781656913</v>
+        <v>0.06017609139720278</v>
       </c>
     </row>
     <row r="66">
@@ -2730,34 +2730,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>10.83779253992083</v>
+        <v>10.88145724133165</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1647972895332571</v>
+        <v>0.1647034957307732</v>
       </c>
       <c r="D66" t="n">
-        <v>9.881350940660475</v>
+        <v>9.961490662583245</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1575430289248606</v>
+        <v>0.159425398960671</v>
       </c>
       <c r="F66" t="n">
-        <v>9.881350940660475</v>
+        <v>9.961490662583245</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05558723066455173</v>
+        <v>0.05958817378012425</v>
       </c>
       <c r="H66" t="n">
-        <v>10.83779253992083</v>
+        <v>10.88145724133165</v>
       </c>
       <c r="I66" t="n">
-        <v>0.1697134278577006</v>
+        <v>0.1650825911006012</v>
       </c>
       <c r="J66" t="n">
-        <v>10.83779253992083</v>
+        <v>10.88145724133165</v>
       </c>
       <c r="K66" t="n">
-        <v>0.06243908682402419</v>
+        <v>0.0642335245455801</v>
       </c>
     </row>
     <row r="67">
@@ -2765,34 +2765,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>10.93731517003902</v>
+        <v>10.98065642921716</v>
       </c>
       <c r="C67" t="n">
-        <v>0.1646043234601891</v>
+        <v>0.1645560539138584</v>
       </c>
       <c r="D67" t="n">
-        <v>9.971531065752618</v>
+        <v>10.05107716010559</v>
       </c>
       <c r="E67" t="n">
-        <v>0.158772370118402</v>
+        <v>0.1612398174485284</v>
       </c>
       <c r="F67" t="n">
-        <v>9.971531065752618</v>
+        <v>10.05107716010559</v>
       </c>
       <c r="G67" t="n">
-        <v>0.06009845103713623</v>
+        <v>0.06418630148435739</v>
       </c>
       <c r="H67" t="n">
-        <v>10.93731517003902</v>
+        <v>10.98065642921716</v>
       </c>
       <c r="I67" t="n">
-        <v>0.1710414597625264</v>
+        <v>0.1655898183718078</v>
       </c>
       <c r="J67" t="n">
-        <v>10.93731517003902</v>
+        <v>10.98065642921716</v>
       </c>
       <c r="K67" t="n">
-        <v>0.06654896808777716</v>
+        <v>0.06835622976615602</v>
       </c>
     </row>
     <row r="68">
@@ -2800,34 +2800,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.0368378001572</v>
+        <v>11.07985561710267</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1645579097843967</v>
+        <v>0.1646308510144969</v>
       </c>
       <c r="D68" t="n">
-        <v>10.06171119084476</v>
+        <v>10.14066365762793</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1600022307010341</v>
+        <v>0.1629004025542509</v>
       </c>
       <c r="F68" t="n">
-        <v>10.06171119084476</v>
+        <v>10.14066365762793</v>
       </c>
       <c r="G68" t="n">
-        <v>0.06474002494403046</v>
+        <v>0.06889123594022178</v>
       </c>
       <c r="H68" t="n">
-        <v>11.0368378001572</v>
+        <v>11.07985561710267</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1722788161770203</v>
+        <v>0.1660474936543321</v>
       </c>
       <c r="J68" t="n">
-        <v>11.0368378001572</v>
+        <v>11.07985561710267</v>
       </c>
       <c r="K68" t="n">
-        <v>0.0707091887571271</v>
+        <v>0.07252719998427344</v>
       </c>
     </row>
     <row r="69">
@@ -2835,34 +2835,34 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.13636043027539</v>
+        <v>11.17905480498819</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1648354445912446</v>
+        <v>0.1650859183688609</v>
       </c>
       <c r="D69" t="n">
-        <v>10.1518913159369</v>
+        <v>10.23025015515027</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1612679580091259</v>
+        <v>0.1644010821340058</v>
       </c>
       <c r="F69" t="n">
-        <v>10.1518913159369</v>
+        <v>10.23025015515027</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06948700063153028</v>
+        <v>0.07367582795675277</v>
       </c>
       <c r="H69" t="n">
-        <v>11.13636043027539</v>
+        <v>11.17905480498819</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1734066994730561</v>
+        <v>0.1664664692739586</v>
       </c>
       <c r="J69" t="n">
-        <v>11.13636043027539</v>
+        <v>11.17905480498819</v>
       </c>
       <c r="K69" t="n">
-        <v>0.07492251896098139</v>
+        <v>0.07673899970501531</v>
       </c>
     </row>
     <row r="70">
@@ -2870,34 +2870,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.23588306039357</v>
+        <v>11.2782539928737</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1655515927245841</v>
+        <v>0.1659898115839444</v>
       </c>
       <c r="D70" t="n">
-        <v>10.24207144102904</v>
+        <v>10.31983665267262</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1625767633685433</v>
+        <v>0.1657402571352662</v>
       </c>
       <c r="F70" t="n">
-        <v>10.24207144102904</v>
+        <v>10.31983665267262</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07431283853251351</v>
+        <v>0.07853619170324483</v>
       </c>
       <c r="H70" t="n">
-        <v>11.23588306039357</v>
+        <v>11.2782539928737</v>
       </c>
       <c r="I70" t="n">
-        <v>0.174427285179305</v>
+        <v>0.1668648380314367</v>
       </c>
       <c r="J70" t="n">
-        <v>11.23588306039357</v>
+        <v>11.2782539928737</v>
       </c>
       <c r="K70" t="n">
-        <v>0.0791643829842148</v>
+        <v>0.08097364951339274</v>
       </c>
     </row>
     <row r="71">
@@ -2905,34 +2905,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.33540569051176</v>
+        <v>11.37745318075921</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1667673737024934</v>
+        <v>0.1674697237498975</v>
       </c>
       <c r="D71" t="n">
-        <v>10.33225156612118</v>
+        <v>10.40942315019496</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1639290171081809</v>
+        <v>0.1668993819080617</v>
       </c>
       <c r="F71" t="n">
-        <v>10.33225156612118</v>
+        <v>10.40942315019496</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07921588972731794</v>
+        <v>0.0834381505659914</v>
       </c>
       <c r="H71" t="n">
-        <v>11.33540569051176</v>
+        <v>11.37745318075921</v>
       </c>
       <c r="I71" t="n">
-        <v>0.1753418822570684</v>
+        <v>0.1672802602178467</v>
       </c>
       <c r="J71" t="n">
-        <v>11.33540569051176</v>
+        <v>11.37745318075921</v>
       </c>
       <c r="K71" t="n">
-        <v>0.08342056887142746</v>
+        <v>0.08521900625155077</v>
       </c>
     </row>
     <row r="72">
@@ -2940,34 +2940,34 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.43492832062994</v>
+        <v>11.47665236864472</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1685539205648802</v>
+        <v>0.1694343738636948</v>
       </c>
       <c r="D72" t="n">
-        <v>10.42243169121332</v>
+        <v>10.4990096477173</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1653120607925133</v>
+        <v>0.1678714083867799</v>
       </c>
       <c r="F72" t="n">
-        <v>10.42243169121332</v>
+        <v>10.4990096477173</v>
       </c>
       <c r="G72" t="n">
-        <v>0.08415059500485898</v>
+        <v>0.08836201187926836</v>
       </c>
       <c r="H72" t="n">
-        <v>11.43492832062994</v>
+        <v>11.47665236864472</v>
       </c>
       <c r="I72" t="n">
-        <v>0.176172851865496</v>
+        <v>0.1677414354973524</v>
       </c>
       <c r="J72" t="n">
-        <v>11.43492832062994</v>
+        <v>11.47665236864472</v>
       </c>
       <c r="K72" t="n">
-        <v>0.08767302268966039</v>
+        <v>0.08944828836784589</v>
       </c>
     </row>
     <row r="73">
@@ -2975,34 +2975,34 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.53445095074813</v>
+        <v>11.57585155653023</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1707834815822745</v>
+        <v>0.1718267314473859</v>
       </c>
       <c r="D73" t="n">
-        <v>10.51261181630547</v>
+        <v>10.58859614523965</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1667027455968188</v>
+        <v>0.1686371841174877</v>
       </c>
       <c r="F73" t="n">
-        <v>10.51261181630547</v>
+        <v>10.58859614523965</v>
       </c>
       <c r="G73" t="n">
-        <v>0.08910808958487357</v>
+        <v>0.09328738827556265</v>
       </c>
       <c r="H73" t="n">
-        <v>11.53445095074813</v>
+        <v>11.57585155653023</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1769396152562596</v>
+        <v>0.168284639013519</v>
       </c>
       <c r="J73" t="n">
-        <v>11.53445095074813</v>
+        <v>11.57585155653023</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0918966823609404</v>
+        <v>0.09363763015854232</v>
       </c>
     </row>
     <row r="74">
@@ -3010,34 +3010,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.63397358086631</v>
+        <v>11.67505074441574</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1733706053020803</v>
+        <v>0.1744978803395947</v>
       </c>
       <c r="D74" t="n">
-        <v>10.60279194139761</v>
+        <v>10.67818264276199</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1680772204256266</v>
+        <v>0.1692067902522739</v>
       </c>
       <c r="F74" t="n">
-        <v>10.60279194139761</v>
+        <v>10.67818264276199</v>
       </c>
       <c r="G74" t="n">
-        <v>0.09406821387280644</v>
+        <v>0.09819803596085214</v>
       </c>
       <c r="H74" t="n">
-        <v>11.63397358086631</v>
+        <v>11.67505074441574</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1776517671172772</v>
+        <v>0.1689476796381631</v>
       </c>
       <c r="J74" t="n">
-        <v>11.63397358086631</v>
+        <v>11.67505074441574</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0960627133071133</v>
+        <v>0.09776217793047835</v>
       </c>
     </row>
     <row r="75">
@@ -3045,34 +3045,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.73349621098449</v>
+        <v>11.77424993230126</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1761214280772471</v>
+        <v>0.1772536479040445</v>
       </c>
       <c r="D75" t="n">
-        <v>10.69297206648975</v>
+        <v>10.76776914028433</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1694068791184242</v>
+        <v>0.1695658960403501</v>
       </c>
       <c r="F75" t="n">
-        <v>10.69297206648975</v>
+        <v>10.76776914028433</v>
       </c>
       <c r="G75" t="n">
-        <v>0.09900479590821157</v>
+        <v>0.1030642572447285</v>
       </c>
       <c r="H75" t="n">
-        <v>11.73349621098449</v>
+        <v>11.77424993230126</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1783246359673751</v>
+        <v>0.1697417777576929</v>
       </c>
       <c r="J75" t="n">
-        <v>11.73349621098449</v>
+        <v>11.77424993230126</v>
       </c>
       <c r="K75" t="n">
-        <v>0.1001471688885886</v>
+        <v>0.1017876717729178</v>
       </c>
     </row>
     <row r="76">
@@ -3080,34 +3080,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.83301884110268</v>
+        <v>11.87344912018677</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1788485609821701</v>
+        <v>0.1798874876910776</v>
       </c>
       <c r="D76" t="n">
-        <v>10.78315219158189</v>
+        <v>10.85735563780667</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1706646523649488</v>
+        <v>0.1697503751255846</v>
       </c>
       <c r="F76" t="n">
-        <v>10.78315219158189</v>
+        <v>10.85735563780667</v>
       </c>
       <c r="G76" t="n">
-        <v>0.1038946952642112</v>
+        <v>0.1078551683827309</v>
       </c>
       <c r="H76" t="n">
-        <v>11.83301884110268</v>
+        <v>11.87344912018677</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1789446818755773</v>
+        <v>0.1706723419654307</v>
       </c>
       <c r="J76" t="n">
-        <v>11.83301884110268</v>
+        <v>11.87344912018677</v>
       </c>
       <c r="K76" t="n">
-        <v>0.1041122508873088</v>
+        <v>0.1056901433002125</v>
       </c>
     </row>
     <row r="77">
@@ -3115,34 +3115,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.93254147122086</v>
+        <v>11.97264830807228</v>
       </c>
       <c r="C77" t="n">
-        <v>0.181322393776502</v>
+        <v>0.182218719536381</v>
       </c>
       <c r="D77" t="n">
-        <v>10.87333231667403</v>
+        <v>10.94694213532902</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1718376205601985</v>
+        <v>0.169762666626397</v>
       </c>
       <c r="F77" t="n">
-        <v>10.87333231667403</v>
+        <v>10.94694213532902</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1086962595671471</v>
+        <v>0.1125375028369426</v>
       </c>
       <c r="H77" t="n">
-        <v>11.93254147122086</v>
+        <v>11.97264830807228</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1794870947470055</v>
+        <v>0.1717168425894521</v>
       </c>
       <c r="J77" t="n">
-        <v>11.93254147122086</v>
+        <v>11.97264830807228</v>
       </c>
       <c r="K77" t="n">
-        <v>0.1079380923607743</v>
+        <v>0.1094260023979603</v>
       </c>
     </row>
     <row r="78">
@@ -3150,34 +3150,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.03206410133905</v>
+        <v>12.07184749595779</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1834020440010599</v>
+        <v>0.1840948663663492</v>
       </c>
       <c r="D78" t="n">
-        <v>10.96351244176617</v>
+        <v>11.03652863285136</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1728968427156831</v>
+        <v>0.1696495274218659</v>
       </c>
       <c r="F78" t="n">
-        <v>10.96351244176617</v>
+        <v>11.03652863285136</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1133903594939026</v>
+        <v>0.1170820806130513</v>
       </c>
       <c r="H78" t="n">
-        <v>12.03206410133905</v>
+        <v>12.07184749595779</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1799099259064537</v>
+        <v>0.1728302465447857</v>
       </c>
       <c r="J78" t="n">
-        <v>12.03206410133905</v>
+        <v>12.07184749595779</v>
       </c>
       <c r="K78" t="n">
-        <v>0.1115837866100253</v>
+        <v>0.1129837058502866</v>
       </c>
     </row>
     <row r="79">
@@ -3185,34 +3185,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.13158673145723</v>
+        <v>12.1710466838433</v>
       </c>
       <c r="C79" t="n">
-        <v>0.184939975721892</v>
+        <v>0.1853588023598831</v>
       </c>
       <c r="D79" t="n">
-        <v>11.05369256685831</v>
+        <v>11.1261151303737</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1738565212122399</v>
+        <v>0.1694439785513725</v>
       </c>
       <c r="F79" t="n">
-        <v>11.05369256685831</v>
+        <v>11.1261151303737</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1179307706794338</v>
+        <v>0.1214405377705974</v>
       </c>
       <c r="H79" t="n">
-        <v>12.13158673145723</v>
+        <v>12.1710466838433</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1801355669146764</v>
+        <v>0.1739308559876328</v>
       </c>
       <c r="J79" t="n">
-        <v>12.13158673145723</v>
+        <v>12.1710466838433</v>
       </c>
       <c r="K79" t="n">
-        <v>0.1150248765763792</v>
+        <v>0.1163281798426513</v>
       </c>
     </row>
     <row r="80">
@@ -3220,34 +3220,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.23110936157542</v>
+        <v>12.27024587172881</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1858189226458291</v>
+        <v>0.1860061495982719</v>
       </c>
       <c r="D80" t="n">
-        <v>11.14387269195045</v>
+        <v>11.21570162789605</v>
       </c>
       <c r="E80" t="n">
-        <v>0.174695154838254</v>
+        <v>0.1691842833349457</v>
       </c>
       <c r="F80" t="n">
-        <v>11.14387269195045</v>
+        <v>11.21570162789605</v>
       </c>
       <c r="G80" t="n">
-        <v>0.1222820247297041</v>
+        <v>0.1255811060746589</v>
       </c>
       <c r="H80" t="n">
-        <v>12.23110936157542</v>
+        <v>12.27024587172881</v>
       </c>
       <c r="I80" t="n">
-        <v>0.1800942612960524</v>
+        <v>0.1749375727801668</v>
       </c>
       <c r="J80" t="n">
-        <v>12.23110936157542</v>
+        <v>12.27024587172881</v>
       </c>
       <c r="K80" t="n">
-        <v>0.11824357579777</v>
+        <v>0.1194393898844131</v>
       </c>
     </row>
     <row r="81">
@@ -3255,34 +3255,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.3306319916936</v>
+        <v>12.36944505961432</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1860524574214071</v>
+        <v>0.1859246787260654</v>
       </c>
       <c r="D81" t="n">
-        <v>11.2340528170426</v>
+        <v>11.30528812541839</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1754427981942649</v>
+        <v>0.168924161440494</v>
       </c>
       <c r="F81" t="n">
-        <v>11.2340528170426</v>
+        <v>11.30528812541839</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1263998970547847</v>
+        <v>0.1294588287707108</v>
       </c>
       <c r="H81" t="n">
-        <v>12.3306319916936</v>
+        <v>12.36944505961432</v>
       </c>
       <c r="I81" t="n">
-        <v>0.1796731384851382</v>
+        <v>0.1757389030968017</v>
       </c>
       <c r="J81" t="n">
-        <v>12.3306319916936</v>
+        <v>12.36944505961432</v>
       </c>
       <c r="K81" t="n">
-        <v>0.1212134747248265</v>
+        <v>0.1223045700038704</v>
       </c>
     </row>
     <row r="82">
@@ -3290,34 +3290,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.43015462181178</v>
+        <v>12.46864424749984</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1855377399790403</v>
+        <v>0.1851566000904248</v>
       </c>
       <c r="D82" t="n">
-        <v>11.32423294213474</v>
+        <v>11.39487462294073</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1760957751537062</v>
+        <v>0.1686884717244074</v>
       </c>
       <c r="F82" t="n">
-        <v>11.32423294213474</v>
+        <v>11.39487462294073</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1302392026602997</v>
+        <v>0.133031073393933</v>
       </c>
       <c r="H82" t="n">
-        <v>12.43015462181178</v>
+        <v>12.46864424749984</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1787745142173176</v>
+        <v>0.1761967974038058</v>
       </c>
       <c r="J82" t="n">
-        <v>12.43015462181178</v>
+        <v>12.46864424749984</v>
       </c>
       <c r="K82" t="n">
-        <v>0.1239226370126651</v>
+        <v>0.1248994662428862</v>
       </c>
     </row>
     <row r="83">
@@ -3325,34 +3325,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.52967725192997</v>
+        <v>12.56784343538535</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1843354475346233</v>
+        <v>0.1837044773554701</v>
       </c>
       <c r="D83" t="n">
-        <v>11.41441306722688</v>
+        <v>11.48446112046307</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1766813761374843</v>
+        <v>0.1685323142056846</v>
       </c>
       <c r="F83" t="n">
-        <v>11.41441306722688</v>
+        <v>11.48446112046307</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1337705140378789</v>
+        <v>0.1362695901806081</v>
       </c>
       <c r="H83" t="n">
-        <v>12.52967725192997</v>
+        <v>12.56784343538535</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1773202952124929</v>
+        <v>0.1762083522906125</v>
       </c>
       <c r="J83" t="n">
-        <v>12.52967725192997</v>
+        <v>12.56784343538535</v>
       </c>
       <c r="K83" t="n">
-        <v>0.1263633483683669</v>
+        <v>0.1272240009019461</v>
       </c>
     </row>
     <row r="84">
@@ -3360,34 +3360,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.62919988204816</v>
+        <v>12.66704262327086</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1824396550322556</v>
+        <v>0.1814994286418906</v>
       </c>
       <c r="D84" t="n">
-        <v>11.50459319231902</v>
+        <v>11.57404761798542</v>
       </c>
       <c r="E84" t="n">
-        <v>0.17720963284222</v>
+        <v>0.1684690080129752</v>
       </c>
       <c r="F84" t="n">
-        <v>11.50459319231902</v>
+        <v>11.57404761798542</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1369393220797998</v>
+        <v>0.1391348136174649</v>
       </c>
       <c r="H84" t="n">
-        <v>12.62919988204816</v>
+        <v>12.66704262327086</v>
       </c>
       <c r="I84" t="n">
-        <v>0.1751727831336873</v>
+        <v>0.1756429526949004</v>
       </c>
       <c r="J84" t="n">
-        <v>12.62919988204816</v>
+        <v>12.66704262327086</v>
       </c>
       <c r="K84" t="n">
-        <v>0.1285214965582875</v>
+        <v>0.129275225779916</v>
       </c>
     </row>
     <row r="85">
@@ -3395,34 +3395,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.72872251216634</v>
+        <v>12.76624181115637</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1797779685120779</v>
+        <v>0.1786097950913123</v>
       </c>
       <c r="D85" t="n">
-        <v>11.59477331741116</v>
+        <v>11.66363411550776</v>
       </c>
       <c r="E85" t="n">
-        <v>0.1776935587812572</v>
+        <v>0.16853492561536</v>
       </c>
       <c r="F85" t="n">
-        <v>11.59477331741116</v>
+        <v>11.66363411550776</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1397535987721627</v>
+        <v>0.1416268910358128</v>
       </c>
       <c r="H85" t="n">
-        <v>12.72872251216634</v>
+        <v>12.76624181115637</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1722977940204112</v>
+        <v>0.1744009835068808</v>
       </c>
       <c r="J85" t="n">
-        <v>12.72872251216634</v>
+        <v>12.76624181115637</v>
       </c>
       <c r="K85" t="n">
-        <v>0.130414094947367</v>
+        <v>0.1310430778133798</v>
       </c>
     </row>
     <row r="86">
@@ -3430,34 +3430,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.82824514228452</v>
+        <v>12.86544099904189</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1764079742290536</v>
+        <v>0.1749297473822913</v>
       </c>
       <c r="D86" t="n">
-        <v>11.6849534425033</v>
+        <v>11.7532206130301</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1781374526278735</v>
+        <v>0.1687237000019833</v>
       </c>
       <c r="F86" t="n">
-        <v>11.6849534425033</v>
+        <v>11.7532206130301</v>
       </c>
       <c r="G86" t="n">
-        <v>0.142160118260036</v>
+        <v>0.1437233971429766</v>
       </c>
       <c r="H86" t="n">
-        <v>12.82824514228452</v>
+        <v>12.86544099904189</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1686489817513244</v>
+        <v>0.1724116229156508</v>
       </c>
       <c r="J86" t="n">
-        <v>12.82824514228452</v>
+        <v>12.86544099904189</v>
       </c>
       <c r="K86" t="n">
-        <v>0.1320179808605842</v>
+        <v>0.1325571096691217</v>
       </c>
     </row>
     <row r="87">
@@ -3465,34 +3465,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.92776777240271</v>
+        <v>12.9646401869274</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1722174313539631</v>
+        <v>0.1704519068601125</v>
       </c>
       <c r="D87" t="n">
-        <v>11.77513356759544</v>
+        <v>11.84280711055245</v>
       </c>
       <c r="E87" t="n">
-        <v>0.178530852178322</v>
+        <v>0.1690456462502173</v>
       </c>
       <c r="F87" t="n">
-        <v>11.77513356759544</v>
+        <v>11.84280711055245</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1441773284628489</v>
+        <v>0.1454316506345951</v>
       </c>
       <c r="H87" t="n">
-        <v>12.92776777240271</v>
+        <v>12.9646401869274</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1641659405201041</v>
+        <v>0.1695902197615698</v>
       </c>
       <c r="J87" t="n">
-        <v>12.92776777240271</v>
+        <v>12.9646401869274</v>
       </c>
       <c r="K87" t="n">
-        <v>0.1333758175464345</v>
+        <v>0.1338203948829874</v>
       </c>
     </row>
     <row r="88">
@@ -3500,34 +3500,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.02729040252089</v>
+        <v>13.06383937481291</v>
       </c>
       <c r="C88" t="n">
-        <v>0.167193768293486</v>
+        <v>0.1651663614330179</v>
       </c>
       <c r="D88" t="n">
-        <v>11.86531369268758</v>
+        <v>11.93239360807479</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1788549721859427</v>
+        <v>0.1694725953276727</v>
       </c>
       <c r="F88" t="n">
-        <v>11.86531369268758</v>
+        <v>11.93239360807479</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1457939850364142</v>
+        <v>0.1467540839981867</v>
       </c>
       <c r="H88" t="n">
-        <v>13.02729040252089</v>
+        <v>13.06383937481291</v>
       </c>
       <c r="I88" t="n">
-        <v>0.1588989314530477</v>
+        <v>0.1659520387975673</v>
       </c>
       <c r="J88" t="n">
-        <v>13.02729040252089</v>
+        <v>13.06383937481291</v>
       </c>
       <c r="K88" t="n">
-        <v>0.1344979232411511</v>
+        <v>0.1348578753204869</v>
       </c>
     </row>
     <row r="89">
@@ -3535,34 +3535,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.12681303263908</v>
+        <v>13.16303856269842</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1613419937827422</v>
+        <v>0.1589412665057539</v>
       </c>
       <c r="D89" t="n">
-        <v>11.95549381777973</v>
+        <v>12.02198010559713</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1790718628710822</v>
+        <v>0.1699803356651083</v>
       </c>
       <c r="F89" t="n">
-        <v>11.95549381777973</v>
+        <v>12.02198010559713</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1470387028814085</v>
+        <v>0.1477324142572844</v>
       </c>
       <c r="H89" t="n">
-        <v>13.12681303263908</v>
+        <v>13.16303856269842</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1528748528846708</v>
+        <v>0.1614622259262495</v>
       </c>
       <c r="J89" t="n">
-        <v>13.12681303263908</v>
+        <v>13.16303856269842</v>
       </c>
       <c r="K89" t="n">
-        <v>0.1354152414726975</v>
+        <v>0.1357017887711812</v>
       </c>
     </row>
     <row r="90">
@@ -3570,34 +3570,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.22633566275726</v>
+        <v>13.26223775058393</v>
       </c>
       <c r="C90" t="n">
-        <v>0.154533445280183</v>
+        <v>0.1518938270281512</v>
       </c>
       <c r="D90" t="n">
-        <v>12.04567394287187</v>
+        <v>12.11156660311947</v>
       </c>
       <c r="E90" t="n">
-        <v>0.179132235201323</v>
+        <v>0.1705238214016392</v>
       </c>
       <c r="F90" t="n">
-        <v>12.04567394287187</v>
+        <v>12.11156660311947</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1479412541391399</v>
+        <v>0.1483931275167931</v>
       </c>
       <c r="H90" t="n">
-        <v>13.22633566275726</v>
+        <v>13.26223775058393</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1461454099397326</v>
+        <v>0.1561769228865716</v>
       </c>
       <c r="J90" t="n">
-        <v>13.22633566275726</v>
+        <v>13.26223775058393</v>
       </c>
       <c r="K90" t="n">
-        <v>0.1361583298140362</v>
+        <v>0.1363850223571844</v>
       </c>
     </row>
     <row r="91">
@@ -3605,34 +3605,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.32585829287544</v>
+        <v>13.36143693846944</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1469151389956605</v>
+        <v>0.1439870237900585</v>
       </c>
       <c r="D91" t="n">
-        <v>12.13585406796401</v>
+        <v>12.20115310064182</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1789704937804489</v>
+        <v>0.1710435106276841</v>
       </c>
       <c r="F91" t="n">
-        <v>12.13585406796401</v>
+        <v>12.20115310064182</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1485178082638423</v>
+        <v>0.148769385005164</v>
       </c>
       <c r="H91" t="n">
-        <v>13.32585829287544</v>
+        <v>13.36143693846944</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1388226771714186</v>
+        <v>0.1501619770021595</v>
       </c>
       <c r="J91" t="n">
-        <v>13.32585829287544</v>
+        <v>13.36143693846944</v>
       </c>
       <c r="K91" t="n">
-        <v>0.1367594048346406</v>
+        <v>0.1369560858138226</v>
       </c>
     </row>
     <row r="92">
@@ -3640,34 +3640,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.42538092299363</v>
+        <v>13.46063612635495</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1384922553061065</v>
+        <v>0.1353304543353672</v>
       </c>
       <c r="D92" t="n">
-        <v>12.22603419305615</v>
+        <v>12.29073959816416</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1785209111085523</v>
+        <v>0.1714805431247259</v>
       </c>
       <c r="F92" t="n">
-        <v>12.22603419305615</v>
+        <v>12.29073959816416</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1488308044303145</v>
+        <v>0.148912764549425</v>
       </c>
       <c r="H92" t="n">
-        <v>13.42538092299363</v>
+        <v>13.46063612635495</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1310235743190175</v>
+        <v>0.1434816677074639</v>
       </c>
       <c r="J92" t="n">
-        <v>13.42538092299363</v>
+        <v>13.46063612635495</v>
       </c>
       <c r="K92" t="n">
-        <v>0.1372735902537217</v>
+        <v>0.1374373262519497</v>
       </c>
     </row>
     <row r="93">
@@ -3675,34 +3675,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13.52490355311181</v>
+        <v>13.55983531424047</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1293902540492488</v>
+        <v>0.1260904007496502</v>
       </c>
       <c r="D93" t="n">
-        <v>12.31621431814829</v>
+        <v>12.38032609568651</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1776902588934227</v>
+        <v>0.1717521113954411</v>
       </c>
       <c r="F93" t="n">
-        <v>12.31621431814829</v>
+        <v>12.38032609568651</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1489137416196762</v>
+        <v>0.1488610281015681</v>
       </c>
       <c r="H93" t="n">
-        <v>13.52490355311181</v>
+        <v>13.55983531424047</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1228616069815238</v>
+        <v>0.1362636958029906</v>
       </c>
       <c r="J93" t="n">
-        <v>13.52490355311181</v>
+        <v>13.55983531424047</v>
       </c>
       <c r="K93" t="n">
-        <v>0.1377200578301529</v>
+        <v>0.1378774848578587</v>
       </c>
     </row>
     <row r="94">
@@ -3710,34 +3710,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.62442618323</v>
+        <v>13.65903450212598</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1198107461647819</v>
+        <v>0.1163829767574868</v>
       </c>
       <c r="D94" t="n">
-        <v>12.40639444324043</v>
+        <v>12.46991259320885</v>
       </c>
       <c r="E94" t="n">
-        <v>0.1764281452188379</v>
+        <v>0.1717881368978149</v>
       </c>
       <c r="F94" t="n">
-        <v>12.40639444324043</v>
+        <v>12.46991259320885</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1488177167710207</v>
+        <v>0.1486650690429978</v>
       </c>
       <c r="H94" t="n">
-        <v>13.62442618323</v>
+        <v>13.65903450212598</v>
       </c>
       <c r="I94" t="n">
-        <v>0.114483912111138</v>
+        <v>0.128612389974597</v>
       </c>
       <c r="J94" t="n">
-        <v>13.62442618323</v>
+        <v>13.65903450212598</v>
       </c>
       <c r="K94" t="n">
-        <v>0.1381530667025495</v>
+        <v>0.1382890906026271</v>
       </c>
     </row>
     <row r="95">
@@ -3745,34 +3745,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>13.72394881334818</v>
+        <v>13.75823369001149</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1099138302293108</v>
+        <v>0.1064833632543966</v>
       </c>
       <c r="D95" t="n">
-        <v>12.49657456833257</v>
+        <v>12.55949909073119</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1746217179138112</v>
+        <v>0.1714999452973917</v>
       </c>
       <c r="F95" t="n">
-        <v>12.49657456833257</v>
+        <v>12.55949909073119</v>
       </c>
       <c r="G95" t="n">
-        <v>0.148586607766007</v>
+        <v>0.148363575463878</v>
       </c>
       <c r="H95" t="n">
-        <v>13.72394881334818</v>
+        <v>13.75823369001149</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1060336684431763</v>
+        <v>0.1206551701071561</v>
       </c>
       <c r="J95" t="n">
-        <v>13.72394881334818</v>
+        <v>13.75823369001149</v>
       </c>
       <c r="K95" t="n">
-        <v>0.1385703276187523</v>
+        <v>0.1387240186044685</v>
       </c>
     </row>
     <row r="96">
@@ -3780,34 +3780,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>13.82347144346637</v>
+        <v>13.857432877897</v>
       </c>
       <c r="C96" t="n">
-        <v>0.09996686558986463</v>
+        <v>0.09659611474715686</v>
       </c>
       <c r="D96" t="n">
-        <v>12.58675469342471</v>
+        <v>12.64908558825353</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1722625525843741</v>
+        <v>0.1708168940189209</v>
       </c>
       <c r="F96" t="n">
-        <v>12.58675469342471</v>
+        <v>12.64908558825353</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1482590627180951</v>
+        <v>0.1479913177110249</v>
       </c>
       <c r="H96" t="n">
-        <v>13.82347144346637</v>
+        <v>13.857432877897</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0976340453984873</v>
+        <v>0.1125131123109179</v>
       </c>
       <c r="J96" t="n">
-        <v>13.82347144346637</v>
+        <v>13.857432877897</v>
       </c>
       <c r="K96" t="n">
-        <v>0.1390155864759583</v>
+        <v>0.139169962301098</v>
       </c>
     </row>
     <row r="97">
@@ -3815,34 +3815,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.92299407358455</v>
+        <v>13.95663206578251</v>
       </c>
       <c r="C97" t="n">
-        <v>0.09018304906678669</v>
+        <v>0.08696969965098941</v>
       </c>
       <c r="D97" t="n">
-        <v>12.67693481851686</v>
+        <v>12.73867208577588</v>
       </c>
       <c r="E97" t="n">
-        <v>0.1692399467214855</v>
+        <v>0.1696579939443454</v>
       </c>
       <c r="F97" t="n">
-        <v>12.67693481851686</v>
+        <v>12.73867208577588</v>
       </c>
       <c r="G97" t="n">
-        <v>0.1478679308341827</v>
+        <v>0.147583584549999</v>
       </c>
       <c r="H97" t="n">
-        <v>13.92299407358455</v>
+        <v>13.95663206578251</v>
       </c>
       <c r="I97" t="n">
-        <v>0.08941667352949462</v>
+        <v>0.1043066081274587</v>
       </c>
       <c r="J97" t="n">
-        <v>13.92299407358455</v>
+        <v>13.95663206578251</v>
       </c>
       <c r="K97" t="n">
-        <v>0.1394794337589424</v>
+        <v>0.1396493798639436</v>
       </c>
     </row>
     <row r="98">
@@ -3850,34 +3850,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>14.02251670370273</v>
+        <v>14.05583125366802</v>
       </c>
       <c r="C98" t="n">
-        <v>0.08081396237242044</v>
+        <v>0.0777682343107763</v>
       </c>
       <c r="D98" t="n">
-        <v>12.767114943609</v>
+        <v>12.82825858329822</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1655897559133672</v>
+        <v>0.1679634110194228</v>
       </c>
       <c r="F98" t="n">
-        <v>12.767114943609</v>
+        <v>12.82825858329822</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1474403178732893</v>
+        <v>0.1471490670880013</v>
       </c>
       <c r="H98" t="n">
-        <v>14.02251670370273</v>
+        <v>14.05583125366802</v>
       </c>
       <c r="I98" t="n">
-        <v>0.08147771395424806</v>
+        <v>0.09614465951024875</v>
       </c>
       <c r="J98" t="n">
-        <v>14.02251670370273</v>
+        <v>14.05583125366802</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1399761380699036</v>
+        <v>0.1401411288572376</v>
       </c>
     </row>
     <row r="99">
@@ -3885,34 +3885,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>14.12203933382092</v>
+        <v>14.15503044155354</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07199026729835011</v>
+        <v>0.06924418167055968</v>
       </c>
       <c r="D99" t="n">
-        <v>12.85729506870114</v>
+        <v>12.91784508082056</v>
       </c>
       <c r="E99" t="n">
-        <v>0.1612464995789069</v>
+        <v>0.1656841267914071</v>
       </c>
       <c r="F99" t="n">
-        <v>12.85729506870114</v>
+        <v>12.91784508082056</v>
       </c>
       <c r="G99" t="n">
-        <v>0.1470113297502231</v>
+        <v>0.1467249581763234</v>
       </c>
       <c r="H99" t="n">
-        <v>14.12203933382092</v>
+        <v>14.15503044155354</v>
       </c>
       <c r="I99" t="n">
-        <v>0.07391003889991736</v>
+        <v>0.08812030100021725</v>
       </c>
       <c r="J99" t="n">
-        <v>14.12203933382092</v>
+        <v>14.15503044155354</v>
       </c>
       <c r="K99" t="n">
-        <v>0.1404798197258731</v>
+        <v>0.1406488705340161</v>
       </c>
     </row>
     <row r="100">
@@ -3920,34 +3920,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>14.22156196393911</v>
+        <v>14.25422962943905</v>
       </c>
       <c r="C100" t="n">
-        <v>0.06392018516604145</v>
+        <v>0.06143622374578146</v>
       </c>
       <c r="D100" t="n">
-        <v>12.94747519379328</v>
+        <v>13.00743157834291</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1562764581348217</v>
+        <v>0.1627762382619627</v>
       </c>
       <c r="F100" t="n">
-        <v>12.94747519379328</v>
+        <v>13.00743157834291</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1465876987864414</v>
+        <v>0.1463178304698094</v>
       </c>
       <c r="H100" t="n">
-        <v>14.22156196393911</v>
+        <v>14.25422962943905</v>
       </c>
       <c r="I100" t="n">
-        <v>0.06677119758073959</v>
+        <v>0.08029916663885155</v>
       </c>
       <c r="J100" t="n">
-        <v>14.22156196393911</v>
+        <v>14.25422962943905</v>
       </c>
       <c r="K100" t="n">
-        <v>0.1409816492744845</v>
+        <v>0.1411347663167795</v>
       </c>
     </row>
     <row r="101">
@@ -3955,34 +3955,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>14.32108459405729</v>
+        <v>14.35342881732456</v>
       </c>
       <c r="C101" t="n">
-        <v>0.05664120095910947</v>
+        <v>0.05443881148588815</v>
       </c>
       <c r="D101" t="n">
-        <v>13.03765531888542</v>
+        <v>13.09701807586525</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1506680046376117</v>
+        <v>0.1592414262627983</v>
       </c>
       <c r="F101" t="n">
-        <v>13.03765531888542</v>
+        <v>13.09701807586525</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1461883089608625</v>
+        <v>0.1459360180922798</v>
       </c>
       <c r="H101" t="n">
-        <v>14.32108459405729</v>
+        <v>14.35342881732456</v>
       </c>
       <c r="I101" t="n">
-        <v>0.06010304226206337</v>
+        <v>0.07276335714163293</v>
       </c>
       <c r="J101" t="n">
-        <v>14.32108459405729</v>
+        <v>14.35342881732456</v>
       </c>
       <c r="K101" t="n">
-        <v>0.1414420526789064</v>
+        <v>0.1415840797585149</v>
       </c>
     </row>
     <row r="102">
@@ -3990,34 +3990,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>14.42060722417547</v>
+        <v>14.45262800521007</v>
       </c>
       <c r="C102" t="n">
-        <v>0.05016649499064171</v>
+        <v>0.04829687840439247</v>
       </c>
       <c r="D102" t="n">
-        <v>13.12783544397756</v>
+        <v>13.18660457338759</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1445193109411485</v>
+        <v>0.1550628313699414</v>
       </c>
       <c r="F102" t="n">
-        <v>13.12783544397756</v>
+        <v>13.18660457338759</v>
       </c>
       <c r="G102" t="n">
-        <v>0.1458235239987781</v>
+        <v>0.1456052078844124</v>
       </c>
       <c r="H102" t="n">
-        <v>14.42060722417547</v>
+        <v>14.45262800521007</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0539298649760548</v>
+        <v>0.06555431454417487</v>
       </c>
       <c r="J102" t="n">
-        <v>14.42060722417547</v>
+        <v>14.45262800521007</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1418458171943874</v>
+        <v>0.1419560315523322</v>
       </c>
     </row>
     <row r="103">
@@ -4025,34 +4025,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>14.52012985429366</v>
+        <v>14.55182719309558</v>
       </c>
       <c r="C103" t="n">
-        <v>0.04456098871248004</v>
+        <v>0.04290189963517303</v>
       </c>
       <c r="D103" t="n">
-        <v>13.2180155690697</v>
+        <v>13.27619107090993</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1378678405665213</v>
+        <v>0.150294295803808</v>
       </c>
       <c r="F103" t="n">
-        <v>13.2180155690697</v>
+        <v>13.27619107090993</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1454887572729254</v>
+        <v>0.1453070161856067</v>
       </c>
       <c r="H103" t="n">
-        <v>14.52012985429366</v>
+        <v>14.55182719309558</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0482462156306256</v>
+        <v>0.05869922830425917</v>
       </c>
       <c r="J103" t="n">
-        <v>14.52012985429366</v>
+        <v>14.55182719309558</v>
       </c>
       <c r="K103" t="n">
-        <v>0.1421506489674057</v>
+        <v>0.1422240470670751</v>
       </c>
     </row>
     <row r="104">
@@ -4060,34 +4060,34 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>14.61965248441184</v>
+        <v>14.6510263809811</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0396650484759955</v>
+        <v>0.03828039942348121</v>
       </c>
       <c r="D104" t="n">
-        <v>13.30819569416184</v>
+        <v>13.36577756843228</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1308277509810055</v>
+        <v>0.1449565907660032</v>
       </c>
       <c r="F104" t="n">
-        <v>13.30819569416184</v>
+        <v>13.36577756843228</v>
       </c>
       <c r="G104" t="n">
-        <v>0.145212377400496</v>
+        <v>0.1450661662102045</v>
       </c>
       <c r="H104" t="n">
-        <v>14.61965248441184</v>
+        <v>14.6510263809811</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0430536966533475</v>
+        <v>0.05223706804741018</v>
       </c>
       <c r="J104" t="n">
-        <v>14.61965248441184</v>
+        <v>14.6510263809811</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1423302476801027</v>
+        <v>0.1423496537623764</v>
       </c>
     </row>
     <row r="105">
@@ -4095,34 +4095,34 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>14.71917511453003</v>
+        <v>14.75022556886661</v>
       </c>
       <c r="C105" t="n">
-        <v>0.03545750600769013</v>
+        <v>0.03426634172741375</v>
       </c>
       <c r="D105" t="n">
-        <v>13.39837581925399</v>
+        <v>13.45536406595462</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1234812234044157</v>
+        <v>0.1391377018671749</v>
       </c>
       <c r="F105" t="n">
-        <v>13.39837581925399</v>
+        <v>13.45536406595462</v>
       </c>
       <c r="G105" t="n">
-        <v>0.144995072484091</v>
+        <v>0.1448863363534523</v>
       </c>
       <c r="H105" t="n">
-        <v>14.71917511453003</v>
+        <v>14.75022556886661</v>
       </c>
       <c r="I105" t="n">
-        <v>0.03831359367123419</v>
+        <v>0.04618181053618878</v>
       </c>
       <c r="J105" t="n">
-        <v>14.71917511453003</v>
+        <v>14.75022556886661</v>
       </c>
       <c r="K105" t="n">
-        <v>0.1423423164454486</v>
+        <v>0.1423152835760099</v>
       </c>
     </row>
     <row r="106">
@@ -4130,34 +4130,34 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>14.81869774464821</v>
+        <v>14.84942475675212</v>
       </c>
       <c r="C106" t="n">
-        <v>0.03181629733787224</v>
+        <v>0.03077709966331441</v>
       </c>
       <c r="D106" t="n">
-        <v>13.48855594434613</v>
+        <v>13.54495056347696</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1159431503806666</v>
+        <v>0.1329022473375035</v>
       </c>
       <c r="F106" t="n">
-        <v>13.48855594434613</v>
+        <v>13.54495056347696</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1448408972007433</v>
+        <v>0.1447780619088485</v>
       </c>
       <c r="H106" t="n">
-        <v>14.81869774464821</v>
+        <v>14.84942475675212</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0340034153314305</v>
+        <v>0.04053918452470259</v>
       </c>
       <c r="J106" t="n">
-        <v>14.81869774464821</v>
+        <v>14.84942475675212</v>
       </c>
       <c r="K106" t="n">
-        <v>0.1421779799981532</v>
+        <v>0.1420768357616115</v>
       </c>
     </row>
     <row r="107">
@@ -4165,34 +4165,34 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>14.9182203747664</v>
+        <v>14.94862394463763</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02861439037908939</v>
+        <v>0.02773514901569441</v>
       </c>
       <c r="D107" t="n">
-        <v>13.57873606943827</v>
+        <v>13.63453706099931</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1083123094925862</v>
+        <v>0.1263437622584685</v>
       </c>
       <c r="F107" t="n">
-        <v>13.57873606943827</v>
+        <v>13.63453706099931</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1447531208535751</v>
+        <v>0.1447398140489813</v>
       </c>
       <c r="H107" t="n">
-        <v>14.9182203747664</v>
+        <v>14.94862394463763</v>
       </c>
       <c r="I107" t="n">
-        <v>0.03009805349125426</v>
+        <v>0.0353320474169239</v>
       </c>
       <c r="J107" t="n">
-        <v>14.9182203747664</v>
+        <v>14.94862394463763</v>
       </c>
       <c r="K107" t="n">
-        <v>0.1417939271403571</v>
+        <v>0.1416461795226541</v>
       </c>
     </row>
     <row r="108">
@@ -4200,34 +4200,34 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.01774300488458</v>
+        <v>15.04782313252314</v>
       </c>
       <c r="C108" t="n">
-        <v>0.02580971665377113</v>
+        <v>0.02500834888731937</v>
       </c>
       <c r="D108" t="n">
-        <v>13.66891619453041</v>
+        <v>13.72412355852165</v>
       </c>
       <c r="E108" t="n">
-        <v>0.100700019672456</v>
+        <v>0.1195568691633963</v>
       </c>
       <c r="F108" t="n">
-        <v>13.66891619453041</v>
+        <v>13.72412355852165</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1447439884101236</v>
+        <v>0.1447792130131617</v>
       </c>
       <c r="H108" t="n">
-        <v>15.01774300488458</v>
+        <v>15.04782313252314</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02654576054687204</v>
+        <v>0.03055785449071848</v>
       </c>
       <c r="J108" t="n">
-        <v>15.01774300488458</v>
+        <v>15.04782313252314</v>
       </c>
       <c r="K108" t="n">
-        <v>0.1412072351436857</v>
+        <v>0.1409808529959899</v>
       </c>
     </row>
     <row r="109">
@@ -4235,34 +4235,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.11726563500277</v>
+        <v>15.14702232040865</v>
       </c>
       <c r="C109" t="n">
-        <v>0.02326694129591463</v>
+        <v>0.02255342724368363</v>
       </c>
       <c r="D109" t="n">
-        <v>13.75909631962255</v>
+        <v>13.81371005604399</v>
       </c>
       <c r="E109" t="n">
-        <v>0.09319015551697515</v>
+        <v>0.1126232473448728</v>
       </c>
       <c r="F109" t="n">
-        <v>13.75909631962255</v>
+        <v>13.81371005604399</v>
       </c>
       <c r="G109" t="n">
-        <v>0.1448187503340693</v>
+        <v>0.1449009184394242</v>
       </c>
       <c r="H109" t="n">
-        <v>15.11726563500277</v>
+        <v>15.14702232040865</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02332460908167086</v>
+        <v>0.02620340126818962</v>
       </c>
       <c r="J109" t="n">
-        <v>15.11726563500277</v>
+        <v>15.14702232040865</v>
       </c>
       <c r="K109" t="n">
-        <v>0.1403905155035372</v>
+        <v>0.1401044435462763</v>
       </c>
     </row>
     <row r="110">
@@ -4270,34 +4270,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.21678826512095</v>
+        <v>15.24622150829417</v>
       </c>
       <c r="C110" t="n">
-        <v>0.02094167450408569</v>
+        <v>0.02029056533805394</v>
       </c>
       <c r="D110" t="n">
-        <v>13.84927644471469</v>
+        <v>13.90329655356634</v>
       </c>
       <c r="E110" t="n">
-        <v>0.08588331288664655</v>
+        <v>0.1056380571448116</v>
       </c>
       <c r="F110" t="n">
-        <v>13.84927644471469</v>
+        <v>13.90329655356634</v>
       </c>
       <c r="G110" t="n">
-        <v>0.1449744025801264</v>
+        <v>0.145104029590144</v>
       </c>
       <c r="H110" t="n">
-        <v>15.21678826512095</v>
+        <v>15.24622150829417</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0204034967440164</v>
+        <v>0.02228975183763863</v>
       </c>
       <c r="J110" t="n">
-        <v>15.21678826512095</v>
+        <v>15.24622150829417</v>
       </c>
       <c r="K110" t="n">
-        <v>0.1393583585592163</v>
+        <v>0.1390160531850508</v>
       </c>
     </row>
     <row r="111">
@@ -4305,34 +4305,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.31631089523913</v>
+        <v>15.34542069617968</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0187890205247901</v>
+        <v>0.01818115686576828</v>
       </c>
       <c r="D111" t="n">
-        <v>13.93945656980683</v>
+        <v>13.99288305108868</v>
       </c>
       <c r="E111" t="n">
-        <v>0.07883458080604146</v>
+        <v>0.09866892603903502</v>
       </c>
       <c r="F111" t="n">
-        <v>13.93945656980683</v>
+        <v>13.99288305108868</v>
       </c>
       <c r="G111" t="n">
-        <v>0.1452009345023141</v>
+        <v>0.1453791401325904</v>
       </c>
       <c r="H111" t="n">
-        <v>15.31631089523913</v>
+        <v>15.34542069617968</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0177525205741085</v>
+        <v>0.01878775852952012</v>
       </c>
       <c r="J111" t="n">
-        <v>15.31631089523913</v>
+        <v>15.34542069617968</v>
       </c>
       <c r="K111" t="n">
-        <v>0.138126671623907</v>
+        <v>0.1377235451722194</v>
       </c>
     </row>
     <row r="112">
@@ -4340,34 +4340,34 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.41583352535732</v>
+        <v>15.44461988406519</v>
       </c>
       <c r="C112" t="n">
-        <v>0.01676885818404609</v>
+        <v>0.01621450519625164</v>
       </c>
       <c r="D112" t="n">
-        <v>14.02963669489898</v>
+        <v>14.08246954861102</v>
       </c>
       <c r="E112" t="n">
-        <v>0.07211395177275592</v>
+        <v>0.09178329541470974</v>
       </c>
       <c r="F112" t="n">
-        <v>14.02963669489898</v>
+        <v>14.08246954861102</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1455090710233034</v>
+        <v>0.1457151459445181</v>
       </c>
       <c r="H112" t="n">
-        <v>15.41583352535732</v>
+        <v>15.44461988406519</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01535266564789877</v>
+        <v>0.01568767761213662</v>
       </c>
       <c r="J112" t="n">
-        <v>15.41583352535732</v>
+        <v>15.44461988406519</v>
       </c>
       <c r="K112" t="n">
-        <v>0.1366957773742209</v>
+        <v>0.1362556541003125</v>
       </c>
     </row>
     <row r="113">
@@ -4375,34 +4375,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.5153561554755</v>
+        <v>15.5438190719507</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01488534562980235</v>
+        <v>0.01436664564743037</v>
       </c>
       <c r="D113" t="n">
-        <v>14.11981681999112</v>
+        <v>14.17205604613336</v>
       </c>
       <c r="E113" t="n">
-        <v>0.06575621996929988</v>
+        <v>0.08503287008884876</v>
       </c>
       <c r="F113" t="n">
-        <v>14.11981681999112</v>
+        <v>14.17205604613336</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1458745385047707</v>
+        <v>0.1461014839216012</v>
       </c>
       <c r="H113" t="n">
-        <v>15.5153561554755</v>
+        <v>15.5438190719507</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01318013339974567</v>
+        <v>0.01297496117338163</v>
       </c>
       <c r="J113" t="n">
-        <v>15.5153561554755</v>
+        <v>15.5438190719507</v>
       </c>
       <c r="K113" t="n">
-        <v>0.1351078041598838</v>
+        <v>0.1346208944959123</v>
       </c>
     </row>
     <row r="114">
@@ -4410,34 +4410,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.61487878559369</v>
+        <v>15.64301825983621</v>
       </c>
       <c r="C114" t="n">
-        <v>0.01312640609758802</v>
+        <v>0.01265284259386721</v>
       </c>
       <c r="D114" t="n">
-        <v>14.20999694508326</v>
+        <v>14.26164254365571</v>
       </c>
       <c r="E114" t="n">
-        <v>0.05978946438105362</v>
+        <v>0.0784575401159104</v>
       </c>
       <c r="F114" t="n">
-        <v>14.20999694508326</v>
+        <v>14.26164254365571</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1462800080258201</v>
+        <v>0.1465204462502945</v>
       </c>
       <c r="H114" t="n">
-        <v>15.61487878559369</v>
+        <v>15.64301825983621</v>
       </c>
       <c r="I114" t="n">
-        <v>0.01122865259005935</v>
+        <v>0.01062054855953073</v>
       </c>
       <c r="J114" t="n">
-        <v>15.61487878559369</v>
+        <v>15.64301825983621</v>
       </c>
       <c r="K114" t="n">
-        <v>0.1333657165476546</v>
+        <v>0.1328504588989314</v>
       </c>
     </row>
     <row r="115">
@@ -4445,34 +4445,34 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.71440141571187</v>
+        <v>15.74221744772172</v>
       </c>
       <c r="C115" t="n">
-        <v>0.01150075085912189</v>
+        <v>0.01107751117798312</v>
       </c>
       <c r="D115" t="n">
-        <v>14.3001770701754</v>
+        <v>14.35122904117805</v>
       </c>
       <c r="E115" t="n">
-        <v>0.05422481302842948</v>
+        <v>0.07208585036488545</v>
       </c>
       <c r="F115" t="n">
-        <v>14.3001770701754</v>
+        <v>14.35122904117805</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1466969582502523</v>
+        <v>0.1469297341961079</v>
       </c>
       <c r="H115" t="n">
-        <v>15.71440141571187</v>
+        <v>15.74221744772172</v>
       </c>
       <c r="I115" t="n">
-        <v>0.009480614322180583</v>
+        <v>0.008605301579124133</v>
       </c>
       <c r="J115" t="n">
-        <v>15.71440141571187</v>
+        <v>15.74221744772172</v>
       </c>
       <c r="K115" t="n">
-        <v>0.1315032126389589</v>
+        <v>0.1309645947512025</v>
       </c>
     </row>
     <row r="116">
@@ -4480,34 +4480,34 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.81392404583006</v>
+        <v>15.84141663560724</v>
       </c>
       <c r="C116" t="n">
-        <v>0.01003133227964291</v>
+        <v>0.009644972864139368</v>
       </c>
       <c r="D116" t="n">
-        <v>14.39035719526754</v>
+        <v>14.44081553870039</v>
       </c>
       <c r="E116" t="n">
-        <v>0.04906398844290964</v>
+        <v>0.06594782258700572</v>
       </c>
       <c r="F116" t="n">
-        <v>14.39035719526754</v>
+        <v>14.44081553870039</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1470987329407678</v>
+        <v>0.1473057671294277</v>
       </c>
       <c r="H116" t="n">
-        <v>15.81392404583006</v>
+        <v>15.84141663560724</v>
       </c>
       <c r="I116" t="n">
-        <v>0.007924377505686423</v>
+        <v>0.006892743315589213</v>
       </c>
       <c r="J116" t="n">
-        <v>15.81392404583006</v>
+        <v>15.84141663560724</v>
       </c>
       <c r="K116" t="n">
-        <v>0.1295368583709814</v>
+        <v>0.1289795338559147</v>
       </c>
     </row>
     <row r="117">
@@ -4515,34 +4515,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.91344667594824</v>
+        <v>15.94061582349275</v>
       </c>
       <c r="C117" t="n">
-        <v>0.008710883903016598</v>
+        <v>0.008384003246352465</v>
       </c>
       <c r="D117" t="n">
-        <v>14.48053732035968</v>
+        <v>14.53040203622274</v>
       </c>
       <c r="E117" t="n">
-        <v>0.04429386830769091</v>
+        <v>0.06005055903429916</v>
       </c>
       <c r="F117" t="n">
-        <v>14.48053732035968</v>
+        <v>14.53040203622274</v>
       </c>
       <c r="G117" t="n">
-        <v>0.147449221221967</v>
+        <v>0.1476076842808439</v>
       </c>
       <c r="H117" t="n">
-        <v>15.91344667594824</v>
+        <v>15.94061582349275</v>
       </c>
       <c r="I117" t="n">
-        <v>0.006554346159914323</v>
+        <v>0.005456679393086384</v>
       </c>
       <c r="J117" t="n">
-        <v>15.91344667594824</v>
+        <v>15.94061582349275</v>
       </c>
       <c r="K117" t="n">
-        <v>0.1274868653707638</v>
+        <v>0.1269119788129909</v>
       </c>
     </row>
     <row r="118">
@@ -4550,34 +4550,34 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>16.01296930606642</v>
+        <v>16.03981501137826</v>
       </c>
       <c r="C118" t="n">
-        <v>0.007560407153320953</v>
+        <v>0.007275938334634162</v>
       </c>
       <c r="D118" t="n">
-        <v>14.57071744545182</v>
+        <v>14.61998853374508</v>
       </c>
       <c r="E118" t="n">
-        <v>0.03990473806168383</v>
+        <v>0.05441864998656301</v>
       </c>
       <c r="F118" t="n">
-        <v>14.57071744545182</v>
+        <v>14.61998853374508</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1477069128439201</v>
+        <v>0.1477898509596115</v>
       </c>
       <c r="H118" t="n">
-        <v>16.01296930606642</v>
+        <v>16.03981501137826</v>
       </c>
       <c r="I118" t="n">
-        <v>0.005358996059196821</v>
+        <v>0.004268133637073325</v>
       </c>
       <c r="J118" t="n">
-        <v>16.01296930606642</v>
+        <v>16.03981501137826</v>
       </c>
       <c r="K118" t="n">
-        <v>0.1253617844374669</v>
+        <v>0.1247805201984745</v>
       </c>
     </row>
     <row r="119">
@@ -4585,34 +4585,34 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>16.11249193618461</v>
+        <v>16.13901419926377</v>
       </c>
       <c r="C119" t="n">
-        <v>0.006570099119408215</v>
+        <v>0.006330404875525352</v>
       </c>
       <c r="D119" t="n">
-        <v>14.66089757054396</v>
+        <v>14.70957503126742</v>
       </c>
       <c r="E119" t="n">
-        <v>0.03586888875648855</v>
+        <v>0.04905324029810709</v>
       </c>
       <c r="F119" t="n">
-        <v>14.66089757054396</v>
+        <v>14.70957503126742</v>
       </c>
       <c r="G119" t="n">
-        <v>0.147825259103375</v>
+        <v>0.1478131109077282</v>
       </c>
       <c r="H119" t="n">
-        <v>16.11249193618461</v>
+        <v>16.13901419926377</v>
       </c>
       <c r="I119" t="n">
-        <v>0.004327260702017086</v>
+        <v>0.003293423544168247</v>
       </c>
       <c r="J119" t="n">
-        <v>16.11249193618461</v>
+        <v>16.13901419926377</v>
       </c>
       <c r="K119" t="n">
-        <v>0.1231822186208587</v>
+        <v>0.1225872336872073</v>
       </c>
     </row>
     <row r="120">
@@ -4620,34 +4620,34 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>16.21201456630279</v>
+        <v>16.23821338714928</v>
       </c>
       <c r="C120" t="n">
-        <v>0.005725187082861239</v>
+        <v>0.005532695281378804</v>
       </c>
       <c r="D120" t="n">
-        <v>14.75107769563611</v>
+        <v>14.79916152878976</v>
       </c>
       <c r="E120" t="n">
-        <v>0.03216754528117113</v>
+        <v>0.04397011479533189</v>
       </c>
       <c r="F120" t="n">
-        <v>14.75107769563611</v>
+        <v>14.79916152878976</v>
       </c>
       <c r="G120" t="n">
-        <v>0.147765156876373</v>
+        <v>0.1476377628998371</v>
       </c>
       <c r="H120" t="n">
-        <v>16.21201456630279</v>
+        <v>16.23821338714928</v>
       </c>
       <c r="I120" t="n">
-        <v>0.003446214042312084</v>
+        <v>0.002505567377992932</v>
       </c>
       <c r="J120" t="n">
-        <v>16.21201456630279</v>
+        <v>16.23821338714928</v>
       </c>
       <c r="K120" t="n">
-        <v>0.1209457957289612</v>
+        <v>0.1203580904004487</v>
       </c>
     </row>
     <row r="121">
@@ -4655,34 +4655,34 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>16.31153719642098</v>
+        <v>16.3374125750348</v>
       </c>
       <c r="C121" t="n">
-        <v>0.005025529401347504</v>
+        <v>0.004856564520241015</v>
       </c>
       <c r="D121" t="n">
-        <v>14.84125782072825</v>
+        <v>14.88874802631211</v>
       </c>
       <c r="E121" t="n">
-        <v>0.02877349650090806</v>
+        <v>0.03917623546799867</v>
       </c>
       <c r="F121" t="n">
-        <v>14.84125782072825</v>
+        <v>14.88874802631211</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1474694753482444</v>
+        <v>0.147223758650831</v>
       </c>
       <c r="H121" t="n">
-        <v>16.31153719642098</v>
+        <v>16.3374125750348</v>
       </c>
       <c r="I121" t="n">
-        <v>0.002708820851545014</v>
+        <v>0.00187789100045864</v>
       </c>
       <c r="J121" t="n">
-        <v>16.31153719642098</v>
+        <v>16.3374125750348</v>
       </c>
       <c r="K121" t="n">
-        <v>0.118674631530657</v>
+        <v>0.1180710593022172</v>
       </c>
     </row>
     <row r="122">
@@ -4690,34 +4690,34 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>16.41105982653916</v>
+        <v>16.43661176292031</v>
       </c>
       <c r="C122" t="n">
-        <v>0.004430969640254193</v>
+        <v>0.004295360586392094</v>
       </c>
       <c r="D122" t="n">
-        <v>14.93143794582039</v>
+        <v>14.97833452383445</v>
       </c>
       <c r="E122" t="n">
-        <v>0.02565970510763141</v>
+        <v>0.03467771075693546</v>
       </c>
       <c r="F122" t="n">
-        <v>14.93143794582039</v>
+        <v>14.97833452383445</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1469112726700905</v>
+        <v>0.1465078050359545</v>
       </c>
       <c r="H122" t="n">
-        <v>16.41105982653916</v>
+        <v>16.43661176292031</v>
       </c>
       <c r="I122" t="n">
-        <v>0.002097365554338601</v>
+        <v>0.001384920568203591</v>
       </c>
       <c r="J122" t="n">
-        <v>16.41105982653916</v>
+        <v>16.43661176292031</v>
       </c>
       <c r="K122" t="n">
-        <v>0.1163507249882825</v>
+        <v>0.1157475726804243</v>
       </c>
     </row>
     <row r="123">
@@ -4725,34 +4725,34 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>16.51058245665735</v>
+        <v>16.53581095080582</v>
       </c>
       <c r="C123" t="n">
-        <v>0.003926032580619849</v>
+        <v>0.003808916848626939</v>
       </c>
       <c r="D123" t="n">
-        <v>15.02161807091253</v>
+        <v>15.0679210213568</v>
       </c>
       <c r="E123" t="n">
-        <v>0.02280862678424764</v>
+        <v>0.03048781534486743</v>
       </c>
       <c r="F123" t="n">
-        <v>15.02161807091253</v>
+        <v>15.0679210213568</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1460694708784961</v>
+        <v>0.1454965741131976</v>
       </c>
       <c r="H123" t="n">
-        <v>16.51058245665735</v>
+        <v>16.53581095080582</v>
       </c>
       <c r="I123" t="n">
-        <v>0.001597509169072504</v>
+        <v>0.001006335395054529</v>
       </c>
       <c r="J123" t="n">
-        <v>16.51058245665735</v>
+        <v>16.53581095080582</v>
       </c>
       <c r="K123" t="n">
-        <v>0.1139819785968321</v>
+        <v>0.1133760308610342</v>
       </c>
     </row>
     <row r="124">
@@ -4760,34 +4760,34 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>16.61010508677553</v>
+        <v>16.63501013869133</v>
       </c>
       <c r="C124" t="n">
-        <v>0.00348477283087645</v>
+        <v>0.003380866108708526</v>
       </c>
       <c r="D124" t="n">
-        <v>15.11179819600467</v>
+        <v>15.15750751887914</v>
       </c>
       <c r="E124" t="n">
-        <v>0.02018982918249937</v>
+        <v>0.02660218010509836</v>
       </c>
       <c r="F124" t="n">
-        <v>15.11179819600467</v>
+        <v>15.15750751887914</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1448783963138205</v>
+        <v>0.1441449491848784</v>
       </c>
       <c r="H124" t="n">
-        <v>16.61010508677553</v>
+        <v>16.63501013869133</v>
       </c>
       <c r="I124" t="n">
-        <v>0.001198614752256562</v>
+        <v>0.0007187866393383509</v>
       </c>
       <c r="J124" t="n">
-        <v>16.61010508677553</v>
+        <v>16.63501013869133</v>
       </c>
       <c r="K124" t="n">
-        <v>0.111566051183709</v>
+        <v>0.1109481337508636</v>
       </c>
     </row>
     <row r="125">
@@ -4795,34 +4795,34 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>16.70962771689372</v>
+        <v>16.73420932657684</v>
       </c>
       <c r="C125" t="n">
-        <v>0.003084113114383274</v>
+        <v>0.002991165199042294</v>
       </c>
       <c r="D125" t="n">
-        <v>15.20197832109681</v>
+        <v>15.24709401640148</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0177926867039333</v>
+        <v>0.02303479398442274</v>
       </c>
       <c r="F125" t="n">
-        <v>15.20197832109681</v>
+        <v>15.24709401640148</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1433470721706271</v>
+        <v>0.142452836084499</v>
       </c>
       <c r="H125" t="n">
-        <v>16.70962771689372</v>
+        <v>16.73420932657684</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0008866746943927085</v>
+        <v>0.0005042679552560089</v>
       </c>
       <c r="J125" t="n">
-        <v>16.70962771689372</v>
+        <v>16.73420932657684</v>
       </c>
       <c r="K125" t="n">
-        <v>0.1090806444003573</v>
+        <v>0.1084651734270713</v>
       </c>
     </row>
     <row r="126">
@@ -4830,34 +4830,34 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>16.8091503470119</v>
+        <v>16.83340851446236</v>
       </c>
       <c r="C126" t="n">
-        <v>0.002712875507347388</v>
+        <v>0.002624485875163482</v>
       </c>
       <c r="D126" t="n">
-        <v>15.29215844618895</v>
+        <v>15.33668051392382</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0155943138588383</v>
+        <v>0.01977627463156722</v>
       </c>
       <c r="F126" t="n">
-        <v>15.29215844618895</v>
+        <v>15.33668051392382</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1414563204558908</v>
+        <v>0.1403875810423883</v>
       </c>
       <c r="H126" t="n">
-        <v>16.8091503470119</v>
+        <v>16.83340851446236</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0006449361325919028</v>
+        <v>0.0003504252229320208</v>
       </c>
       <c r="J126" t="n">
-        <v>16.8091503470119</v>
+        <v>16.83340851446236</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1065423921440879</v>
+        <v>0.1059042409548907</v>
       </c>
     </row>
     <row r="127">
@@ -4865,34 +4865,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>16.90867297713008</v>
+        <v>16.93260770234787</v>
       </c>
       <c r="C127" t="n">
-        <v>0.002358659874526522</v>
+        <v>0.002275850734397713</v>
       </c>
       <c r="D127" t="n">
-        <v>15.38233857128109</v>
+        <v>15.42626701144617</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01358428554079674</v>
+        <v>0.01683307450362252</v>
       </c>
       <c r="F127" t="n">
-        <v>15.38233857128109</v>
+        <v>15.42626701144617</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1392024045895456</v>
+        <v>0.1379683483061971</v>
       </c>
       <c r="H127" t="n">
-        <v>16.90867297713008</v>
+        <v>16.93260770234787</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0004625679847701745</v>
+        <v>0.0002409812418692447</v>
       </c>
       <c r="J127" t="n">
-        <v>16.90867297713008</v>
+        <v>16.93260770234787</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1039098512701125</v>
+        <v>0.1032665180506188</v>
       </c>
     </row>
     <row r="128">
@@ -4900,34 +4900,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>17.00819560724827</v>
+        <v>17.03180689023338</v>
       </c>
       <c r="C128" t="n">
-        <v>0.002019301432541844</v>
+        <v>0.00194140589806766</v>
       </c>
       <c r="D128" t="n">
-        <v>15.47251869637324</v>
+        <v>15.51585350896851</v>
       </c>
       <c r="E128" t="n">
-        <v>0.01175122946724345</v>
+        <v>0.01419343133512474</v>
       </c>
       <c r="F128" t="n">
-        <v>15.47251869637324</v>
+        <v>15.51585350896851</v>
       </c>
       <c r="G128" t="n">
-        <v>0.136588354537535</v>
+        <v>0.1352070121937797</v>
       </c>
       <c r="H128" t="n">
-        <v>17.00819560724827</v>
+        <v>17.03180689023338</v>
       </c>
       <c r="I128" t="n">
-        <v>0.00033065938758121</v>
+        <v>0.0001707768677252358</v>
       </c>
       <c r="J128" t="n">
-        <v>17.00819560724827</v>
+        <v>17.03180689023338</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1011974370619176</v>
+        <v>0.100543564369667</v>
       </c>
     </row>
     <row r="129">
@@ -4935,34 +4935,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>17.10771823736646</v>
+        <v>17.13100607811889</v>
       </c>
       <c r="C129" t="n">
-        <v>0.001697206359005506</v>
+        <v>0.001623994013691296</v>
       </c>
       <c r="D129" t="n">
-        <v>15.56269882146538</v>
+        <v>15.60544000649085</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01008580122816155</v>
+        <v>0.01185462506846044</v>
       </c>
       <c r="F129" t="n">
-        <v>15.56269882146538</v>
+        <v>15.60544000649085</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1336202593238603</v>
+        <v>0.1320971452564223</v>
       </c>
       <c r="H129" t="n">
-        <v>17.10771823736646</v>
+        <v>17.13100607811889</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0002344064602875748</v>
+        <v>0.0001216882940824253</v>
       </c>
       <c r="J129" t="n">
-        <v>17.10771823736646</v>
+        <v>17.13100607811889</v>
       </c>
       <c r="K129" t="n">
-        <v>0.09839514302257196</v>
+        <v>0.09772038180896865</v>
       </c>
     </row>
     <row r="130">
@@ -4970,34 +4970,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>17.20724086748464</v>
+        <v>17.2302052660044</v>
       </c>
       <c r="C130" t="n">
-        <v>0.001394867332113091</v>
+        <v>0.00132968024901852</v>
       </c>
       <c r="D130" t="n">
-        <v>15.65287894655752</v>
+        <v>15.6950265040132</v>
       </c>
       <c r="E130" t="n">
-        <v>0.00858218152829051</v>
+        <v>0.009801800010323717</v>
       </c>
       <c r="F130" t="n">
-        <v>15.65287894655752</v>
+        <v>15.6950265040132</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1303187476532781</v>
+        <v>0.1286759268767803</v>
       </c>
       <c r="H130" t="n">
-        <v>17.20724086748464</v>
+        <v>17.2302052660044</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0001681193672561329</v>
+        <v>9.014463641885883e-05</v>
       </c>
       <c r="J130" t="n">
-        <v>17.20724086748464</v>
+        <v>17.2302052660044</v>
       </c>
       <c r="K130" t="n">
-        <v>0.09548689187149405</v>
+        <v>0.09480764923985618</v>
       </c>
     </row>
     <row r="131">
@@ -5005,34 +5005,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>17.30676349760282</v>
+        <v>17.32940445388991</v>
       </c>
       <c r="C131" t="n">
-        <v>0.001120427391480248</v>
+        <v>0.001061275697224568</v>
       </c>
       <c r="D131" t="n">
-        <v>15.74305907164966</v>
+        <v>15.78461300153554</v>
       </c>
       <c r="E131" t="n">
-        <v>0.007233384501350816</v>
+        <v>0.008018214379318605</v>
       </c>
       <c r="F131" t="n">
-        <v>15.74305907164966</v>
+        <v>15.78461300153554</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1267107838496085</v>
+        <v>0.124946270546469</v>
       </c>
       <c r="H131" t="n">
-        <v>17.30676349760282</v>
+        <v>17.32940445388991</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0001243814265640017</v>
+        <v>7.026219754236338e-05</v>
       </c>
       <c r="J131" t="n">
-        <v>17.30676349760282</v>
+        <v>17.32940445388991</v>
       </c>
       <c r="K131" t="n">
-        <v>0.09249738490349893</v>
+        <v>0.0917982471762957</v>
       </c>
     </row>
     <row r="132">
@@ -5040,34 +5040,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>17.40628612772101</v>
+        <v>17.42860364177542</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0008770058281014694</v>
+        <v>0.000827072815517148</v>
       </c>
       <c r="D132" t="n">
-        <v>15.8332391967418</v>
+        <v>15.87419949905788</v>
       </c>
       <c r="E132" t="n">
-        <v>0.006033416452043599</v>
+        <v>0.006489214475604806</v>
       </c>
       <c r="F132" t="n">
-        <v>15.8332391967418</v>
+        <v>15.87419949905788</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1228154655884406</v>
+        <v>0.1209501630657122</v>
       </c>
       <c r="H132" t="n">
-        <v>17.40628612772101</v>
+        <v>17.42860364177542</v>
       </c>
       <c r="I132" t="n">
-        <v>9.533540783735434e-05</v>
+        <v>5.826019956696051e-05</v>
       </c>
       <c r="J132" t="n">
-        <v>17.40628612772101</v>
+        <v>17.42860364177542</v>
       </c>
       <c r="K132" t="n">
-        <v>0.08940878742016993</v>
+        <v>0.08870762992977926</v>
       </c>
     </row>
     <row r="133">
@@ -5075,34 +5075,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>17.50580875783919</v>
+        <v>17.52780282966093</v>
       </c>
       <c r="C133" t="n">
-        <v>0.0006671425660890784</v>
+        <v>0.0006268330376555022</v>
       </c>
       <c r="D133" t="n">
-        <v>15.92341932183394</v>
+        <v>15.96378599658022</v>
       </c>
       <c r="E133" t="n">
-        <v>0.004977911053229492</v>
+        <v>0.005190442139238748</v>
       </c>
       <c r="F133" t="n">
-        <v>15.92341932183394</v>
+        <v>15.96378599658022</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1186525990813597</v>
+        <v>0.1167205733183684</v>
       </c>
       <c r="H133" t="n">
-        <v>17.50580875783919</v>
+        <v>17.52780282966093</v>
       </c>
       <c r="I133" t="n">
-        <v>7.597626827579373e-05</v>
+        <v>5.324679994862435e-05</v>
       </c>
       <c r="J133" t="n">
-        <v>17.50580875783919</v>
+        <v>17.52780282966093</v>
       </c>
       <c r="K133" t="n">
-        <v>0.08625253322206641</v>
+        <v>0.08554558047631494</v>
       </c>
     </row>
     <row r="134">
@@ -5110,34 +5110,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>17.60533138795738</v>
+        <v>17.62700201754645</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0004953852845342075</v>
+        <v>0.0004613379561098748</v>
       </c>
       <c r="D134" t="n">
-        <v>16.01359944692608</v>
+        <v>16.05337249410257</v>
       </c>
       <c r="E134" t="n">
-        <v>0.004058130309721083</v>
+        <v>0.004104992696314268</v>
       </c>
       <c r="F134" t="n">
-        <v>16.01359944692608</v>
+        <v>16.05337249410257</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1142708687113012</v>
+        <v>0.1122772189436193</v>
       </c>
       <c r="H134" t="n">
-        <v>17.60533138795738</v>
+        <v>17.62700201754645</v>
       </c>
       <c r="I134" t="n">
-        <v>6.446128611184676e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J134" t="n">
-        <v>17.60533138795738</v>
+        <v>17.62700201754645</v>
       </c>
       <c r="K134" t="n">
-        <v>0.08303681370452792</v>
+        <v>0.08233015129027237</v>
       </c>
     </row>
     <row r="135">
@@ -5145,34 +5145,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>17.70485401807556</v>
+        <v>17.72620120543196</v>
       </c>
       <c r="C135" t="n">
-        <v>0.0003561062275633857</v>
+        <v>0.0003313237478106606</v>
       </c>
       <c r="D135" t="n">
-        <v>16.10377957201823</v>
+        <v>16.14295899162491</v>
       </c>
       <c r="E135" t="n">
-        <v>0.003268150999449152</v>
+        <v>0.003205390819892293</v>
       </c>
       <c r="F135" t="n">
-        <v>16.10377957201823</v>
+        <v>16.14295899162491</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1096986784526433</v>
+        <v>0.1076626739815903</v>
       </c>
       <c r="H135" t="n">
-        <v>17.70485401807556</v>
+        <v>17.72620120543196</v>
       </c>
       <c r="I135" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J135" t="n">
-        <v>17.70485401807556</v>
+        <v>17.72620120543196</v>
       </c>
       <c r="K135" t="n">
-        <v>0.07977934229238313</v>
+        <v>0.07908336544754357</v>
       </c>
     </row>
     <row r="136">
@@ -5180,34 +5180,34 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>17.80437664819375</v>
+        <v>17.82540039331747</v>
       </c>
       <c r="C136" t="n">
-        <v>0.0002492838375280324</v>
+        <v>0.0002298711650486491</v>
       </c>
       <c r="D136" t="n">
-        <v>16.19395969711037</v>
+        <v>16.23254548914725</v>
       </c>
       <c r="E136" t="n">
-        <v>0.002597997846305757</v>
+        <v>0.002474057777956828</v>
       </c>
       <c r="F136" t="n">
-        <v>16.19395969711037</v>
+        <v>16.23254548914725</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1049721082788446</v>
+        <v>0.1029152917920518</v>
       </c>
       <c r="H136" t="n">
-        <v>17.80437664819375</v>
+        <v>17.82540039331747</v>
       </c>
       <c r="I136" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J136" t="n">
-        <v>17.80437664819375</v>
+        <v>17.82540039331747</v>
       </c>
       <c r="K136" t="n">
-        <v>0.07651087234102079</v>
+        <v>0.07581592760285845</v>
       </c>
     </row>
     <row r="137">
@@ -5215,34 +5215,34 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>17.90389927831193</v>
+        <v>17.92459958120298</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0001695323800799487</v>
+        <v>0.0001557322802944898</v>
       </c>
       <c r="D137" t="n">
-        <v>16.2841398222025</v>
+        <v>16.3221319866696</v>
       </c>
       <c r="E137" t="n">
-        <v>0.002037391437838857</v>
+        <v>0.001882629189610192</v>
       </c>
       <c r="F137" t="n">
-        <v>16.2841398222025</v>
+        <v>16.3221319866696</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1001371618389492</v>
+        <v>0.09806431246670116</v>
       </c>
       <c r="H137" t="n">
-        <v>17.90389927831193</v>
+        <v>17.92459958120298</v>
       </c>
       <c r="I137" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J137" t="n">
-        <v>17.90389927831193</v>
+        <v>17.92459958120298</v>
       </c>
       <c r="K137" t="n">
-        <v>0.07323644483057543</v>
+        <v>0.0725582952146514</v>
       </c>
     </row>
     <row r="138">
@@ -5250,34 +5250,34 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>18.00342190843011</v>
+        <v>18.02379876908849</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0001110111253440174</v>
+        <v>0.0001022143138120122</v>
       </c>
       <c r="D138" t="n">
-        <v>16.37431994729465</v>
+        <v>16.41171848419194</v>
       </c>
       <c r="E138" t="n">
-        <v>0.001576343799371284</v>
+        <v>0.001421151343785798</v>
       </c>
       <c r="F138" t="n">
-        <v>16.37431994729465</v>
+        <v>16.41171848419194</v>
       </c>
       <c r="G138" t="n">
-        <v>0.09521476112912593</v>
+        <v>0.09316763486319735</v>
       </c>
       <c r="H138" t="n">
-        <v>18.00342190843011</v>
+        <v>18.02379876908849</v>
       </c>
       <c r="I138" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J138" t="n">
-        <v>18.00342190843011</v>
+        <v>18.02379876908849</v>
       </c>
       <c r="K138" t="n">
-        <v>0.06998374176202503</v>
+        <v>0.06931751366756925</v>
       </c>
     </row>
     <row r="139">
@@ -5285,34 +5285,34 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>18.1029445385483</v>
+        <v>18.122997956974</v>
       </c>
       <c r="C139" t="n">
-        <v>7.15518201833183e-05</v>
+        <v>6.474262357991984e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>16.46450007238679</v>
+        <v>16.50130498171428</v>
       </c>
       <c r="E139" t="n">
-        <v>0.001204709443245689</v>
+        <v>0.001056448423179306</v>
       </c>
       <c r="F139" t="n">
-        <v>16.46450007238679</v>
+        <v>16.50130498171428</v>
       </c>
       <c r="G139" t="n">
-        <v>0.09026489916504253</v>
+        <v>0.08825065717454166</v>
       </c>
       <c r="H139" t="n">
-        <v>18.1029445385483</v>
+        <v>18.122997956974</v>
       </c>
       <c r="I139" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J139" t="n">
-        <v>18.1029445385483</v>
+        <v>18.122997956974</v>
       </c>
       <c r="K139" t="n">
-        <v>0.06676191506041512</v>
+        <v>0.06612183301063784</v>
       </c>
     </row>
     <row r="140">
@@ -5320,34 +5320,34 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>18.20246716866648</v>
+        <v>18.22219714485952</v>
       </c>
       <c r="C140" t="n">
-        <v>4.429455955355057e-05</v>
+        <v>4.029405246202599e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>16.55468019747893</v>
+        <v>16.59089147923662</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0009075937870660891</v>
+        <v>0.0007774557150269942</v>
       </c>
       <c r="F140" t="n">
-        <v>16.55468019747893</v>
+        <v>16.59089147923662</v>
       </c>
       <c r="G140" t="n">
-        <v>0.08532234757497274</v>
+        <v>0.08334168685721094</v>
       </c>
       <c r="H140" t="n">
-        <v>18.20246716866648</v>
+        <v>18.22219714485952</v>
       </c>
       <c r="I140" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J140" t="n">
-        <v>18.20246716866648</v>
+        <v>18.22219714485952</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06359235810601695</v>
+        <v>0.0629712264677299</v>
       </c>
     </row>
     <row r="141">
@@ -5355,34 +5355,34 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>18.30198979878467</v>
+        <v>18.32139633274503</v>
       </c>
       <c r="C141" t="n">
-        <v>2.664703284849574e-05</v>
+        <v>2.508641560613742e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>16.64486032257107</v>
+        <v>16.68047797675897</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0006747589997209106</v>
+        <v>0.0005629192044236045</v>
       </c>
       <c r="F141" t="n">
-        <v>16.64486032257107</v>
+        <v>16.68047797675897</v>
       </c>
       <c r="G141" t="n">
-        <v>0.08041248741524731</v>
+        <v>0.07849139397574285</v>
       </c>
       <c r="H141" t="n">
-        <v>18.30198979878467</v>
+        <v>18.32139633274503</v>
       </c>
       <c r="I141" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J141" t="n">
-        <v>18.30198979878467</v>
+        <v>18.32139633274503</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0604760707180956</v>
+        <v>0.05987164358015746</v>
       </c>
     </row>
     <row r="142">
@@ -5390,34 +5390,34 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>18.40151242890285</v>
+        <v>18.42059552063054</v>
       </c>
       <c r="C142" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>16.73504044766321</v>
+        <v>16.77006447428131</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0004936321467132579</v>
+        <v>0.0004040927815249769</v>
       </c>
       <c r="F142" t="n">
-        <v>16.73504044766321</v>
+        <v>16.77006447428131</v>
       </c>
       <c r="G142" t="n">
-        <v>0.07557936234037409</v>
+        <v>0.07372395703528933</v>
       </c>
       <c r="H142" t="n">
-        <v>18.40151242890285</v>
+        <v>18.42059552063054</v>
       </c>
       <c r="I142" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J142" t="n">
-        <v>18.40151242890285</v>
+        <v>18.42059552063054</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05741241565589691</v>
+        <v>0.05683316483181417</v>
       </c>
     </row>
     <row r="143">
@@ -5425,34 +5425,34 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>18.50103505902104</v>
+        <v>18.51979470851605</v>
       </c>
       <c r="C143" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>16.82522057275536</v>
+        <v>16.85965097180365</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0003573692398891249</v>
+        <v>0.0002885547818921852</v>
       </c>
       <c r="F143" t="n">
-        <v>16.82522057275536</v>
+        <v>16.85965097180365</v>
       </c>
       <c r="G143" t="n">
-        <v>0.07083944643174005</v>
+        <v>0.06906606590465642</v>
       </c>
       <c r="H143" t="n">
-        <v>18.50103505902104</v>
+        <v>18.51979470851605</v>
       </c>
       <c r="I143" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J143" t="n">
-        <v>18.50103505902104</v>
+        <v>18.51979470851605</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05441501510937329</v>
+        <v>0.05385496450275797</v>
       </c>
     </row>
     <row r="144">
@@ -5460,34 +5460,34 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>18.60055768913922</v>
+        <v>18.61899389640156</v>
       </c>
       <c r="C144" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>16.9154006978475</v>
+        <v>16.949237469326</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0002542005687413781</v>
+        <v>0.0002062629251814539</v>
       </c>
       <c r="F144" t="n">
-        <v>16.9154006978475</v>
+        <v>16.949237469326</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06623071858379453</v>
+        <v>0.06453729959922555</v>
       </c>
       <c r="H144" t="n">
-        <v>18.60055768913922</v>
+        <v>18.61899389640156</v>
       </c>
       <c r="I144" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J144" t="n">
-        <v>18.60055768913922</v>
+        <v>18.61899389640156</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0514735496543457</v>
+        <v>0.05094040997189189</v>
       </c>
     </row>
     <row r="145">
@@ -5495,34 +5495,34 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>18.70008031925741</v>
+        <v>18.71819308428708</v>
       </c>
       <c r="C145" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>17.00558082293963</v>
+        <v>17.03882396684834</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0001840653862617479</v>
+        <v>0.0001471798059270601</v>
       </c>
       <c r="F145" t="n">
-        <v>17.00558082293963</v>
+        <v>17.03882396684834</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06176313601716762</v>
+        <v>0.06015571990218176</v>
       </c>
       <c r="H145" t="n">
-        <v>18.70008031925741</v>
+        <v>18.71819308428708</v>
       </c>
       <c r="I145" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J145" t="n">
-        <v>18.70008031925741</v>
+        <v>18.71819308428708</v>
       </c>
       <c r="K145" t="n">
-        <v>0.04860117081323664</v>
+        <v>0.04808230715780318</v>
       </c>
     </row>
     <row r="146">
@@ -5530,34 +5530,34 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>18.79960294937559</v>
+        <v>18.81739227217259</v>
       </c>
       <c r="C146" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D146" t="n">
-        <v>17.09576094803178</v>
+        <v>17.12841046437068</v>
       </c>
       <c r="E146" t="n">
-        <v>0.000135490462270309</v>
+        <v>0.0001075707284976719</v>
       </c>
       <c r="F146" t="n">
-        <v>17.09576094803178</v>
+        <v>17.12841046437068</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05745611637446579</v>
+        <v>0.05593592439394592</v>
       </c>
       <c r="H146" t="n">
-        <v>18.79960294937559</v>
+        <v>18.81739227217259</v>
       </c>
       <c r="I146" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J146" t="n">
-        <v>18.79960294937559</v>
+        <v>18.81739227217259</v>
       </c>
       <c r="K146" t="n">
-        <v>0.04577877193349941</v>
+        <v>0.04528137556577971</v>
       </c>
     </row>
     <row r="147">
@@ -5565,34 +5565,34 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>18.89912557949377</v>
+        <v>18.9165914600581</v>
       </c>
       <c r="C147" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>17.18594107312392</v>
+        <v>17.21799696189303</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0001027940098675183</v>
+        <v>8.103139396371075e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>17.18594107312392</v>
+        <v>17.21799696189303</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05331889417773947</v>
+        <v>0.05188978891176969</v>
       </c>
       <c r="H147" t="n">
-        <v>18.89912557949377</v>
+        <v>18.9165914600581</v>
       </c>
       <c r="I147" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J147" t="n">
-        <v>18.89912557949377</v>
+        <v>18.9165914600581</v>
       </c>
       <c r="K147" t="n">
-        <v>0.04301953699777265</v>
+        <v>0.04254062076989267</v>
       </c>
     </row>
     <row r="148">
@@ -5600,34 +5600,34 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>18.99864820961196</v>
+        <v>19.01579064794361</v>
       </c>
       <c r="C148" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D148" t="n">
-        <v>17.27612119821606</v>
+        <v>17.30758345941537</v>
       </c>
       <c r="E148" t="n">
-        <v>8.236516885052185e-05</v>
+        <v>6.514578243209554e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>17.27612119821606</v>
+        <v>17.30758345941537</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04935824919796086</v>
+        <v>0.04802031810881882</v>
       </c>
       <c r="H148" t="n">
-        <v>18.99864820961196</v>
+        <v>19.01579064794361</v>
       </c>
       <c r="I148" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J148" t="n">
-        <v>18.99864820961196</v>
+        <v>19.01579064794361</v>
       </c>
       <c r="K148" t="n">
-        <v>0.04031767229894097</v>
+        <v>0.039858750081753</v>
       </c>
     </row>
     <row r="149">
@@ -5635,34 +5635,34 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>19.09817083973014</v>
+        <v>19.11498983582912</v>
       </c>
       <c r="C149" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D149" t="n">
-        <v>17.3663013233082</v>
+        <v>17.39716995693771</v>
       </c>
       <c r="E149" t="n">
-        <v>6.85816238531642e-05</v>
+        <v>5.641171600342304e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>17.3663013233082</v>
+        <v>17.39716995693771</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04557943510688503</v>
+        <v>0.04433145272696996</v>
       </c>
       <c r="H149" t="n">
-        <v>19.09817083973014</v>
+        <v>19.11498983582912</v>
       </c>
       <c r="I149" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J149" t="n">
-        <v>19.09817083973014</v>
+        <v>19.11498983582912</v>
       </c>
       <c r="K149" t="n">
-        <v>0.03768071077128735</v>
+        <v>0.03724160102465429</v>
       </c>
     </row>
     <row r="150">
@@ -5670,34 +5670,34 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>19.19769346984833</v>
+        <v>19.21418902371463</v>
       </c>
       <c r="C150" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D150" t="n">
-        <v>17.45648144840034</v>
+        <v>17.48675645446005</v>
       </c>
       <c r="E150" t="n">
-        <v>6.258940925106402e-05</v>
+        <v>5.117144521087715e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>17.45648144840034</v>
+        <v>17.48675645446005</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04198901419386002</v>
+        <v>0.04081855265155045</v>
       </c>
       <c r="H150" t="n">
-        <v>19.19769346984833</v>
+        <v>19.21418902371463</v>
       </c>
       <c r="I150" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J150" t="n">
-        <v>19.19769346984833</v>
+        <v>19.21418902371463</v>
       </c>
       <c r="K150" t="n">
-        <v>0.03510781519060003</v>
+        <v>0.03468588064218799</v>
       </c>
     </row>
     <row r="151">
@@ -5705,34 +5705,34 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>19.29721609996651</v>
+        <v>19.31338821160015</v>
       </c>
       <c r="C151" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D151" t="n">
-        <v>17.54666157349249</v>
+        <v>17.5763429519824</v>
       </c>
       <c r="E151" t="n">
-        <v>5.925890797075625e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>17.54666157349249</v>
+        <v>17.5763429519824</v>
       </c>
       <c r="G151" t="n">
-        <v>0.03857641771961042</v>
+        <v>0.03749717219833413</v>
       </c>
       <c r="H151" t="n">
-        <v>19.29721609996651</v>
+        <v>19.31338821160015</v>
       </c>
       <c r="I151" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J151" t="n">
-        <v>19.29721609996651</v>
+        <v>19.31338821160015</v>
       </c>
       <c r="K151" t="n">
-        <v>0.03260380935291882</v>
+        <v>0.03220398216442901</v>
       </c>
     </row>
     <row r="152">
@@ -5740,34 +5740,34 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>19.3967387300847</v>
+        <v>19.41258739948566</v>
       </c>
       <c r="C152" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D152" t="n">
-        <v>17.63684169858463</v>
+        <v>17.66592944950474</v>
       </c>
       <c r="E152" t="n">
-        <v>5.699972445011201e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>17.63684169858463</v>
+        <v>17.66592944950474</v>
       </c>
       <c r="G152" t="n">
-        <v>0.03535194344623131</v>
+        <v>0.03435326837052004</v>
       </c>
       <c r="H152" t="n">
-        <v>19.3967387300847</v>
+        <v>19.41258739948566</v>
       </c>
       <c r="I152" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J152" t="n">
-        <v>19.3967387300847</v>
+        <v>19.41258739948566</v>
       </c>
       <c r="K152" t="n">
-        <v>0.03017550327749402</v>
+        <v>0.02979527609822909</v>
       </c>
     </row>
     <row r="153">
@@ -5775,34 +5775,34 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>19.49626136020288</v>
+        <v>19.51178658737117</v>
       </c>
       <c r="C153" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>17.72702182367677</v>
+        <v>17.75551594702709</v>
       </c>
       <c r="E153" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>17.72702182367677</v>
+        <v>17.75551594702709</v>
       </c>
       <c r="G153" t="n">
-        <v>0.03231419362354734</v>
+        <v>0.03138837823444258</v>
       </c>
       <c r="H153" t="n">
-        <v>19.49626136020288</v>
+        <v>19.51178658737117</v>
       </c>
       <c r="I153" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J153" t="n">
-        <v>19.49626136020288</v>
+        <v>19.51178658737117</v>
       </c>
       <c r="K153" t="n">
-        <v>0.02782717358585608</v>
+        <v>0.02747061302898749</v>
       </c>
     </row>
     <row r="154">
@@ -5810,34 +5810,34 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>19.59578399032107</v>
+        <v>19.61098577525668</v>
       </c>
       <c r="C154" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D154" t="n">
-        <v>17.81720194876891</v>
+        <v>17.84510244454943</v>
       </c>
       <c r="E154" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>17.81720194876891</v>
+        <v>17.84510244454943</v>
       </c>
       <c r="G154" t="n">
-        <v>0.02945228027242883</v>
+        <v>0.0286046703489084</v>
       </c>
       <c r="H154" t="n">
-        <v>19.59578399032107</v>
+        <v>19.61098577525668</v>
       </c>
       <c r="I154" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J154" t="n">
-        <v>19.59578399032107</v>
+        <v>19.61098577525668</v>
       </c>
       <c r="K154" t="n">
-        <v>0.02556872234689407</v>
+        <v>0.02523091923065119</v>
       </c>
     </row>
     <row r="155">
@@ -5845,34 +5845,34 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>19.69530662043925</v>
+        <v>19.71018496314219</v>
       </c>
       <c r="C155" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D155" t="n">
-        <v>17.90738207386105</v>
+        <v>17.93468894207177</v>
       </c>
       <c r="E155" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>17.90738207386105</v>
+        <v>17.93468894207177</v>
       </c>
       <c r="G155" t="n">
-        <v>0.02677461776063213</v>
+        <v>0.02599690071501389</v>
       </c>
       <c r="H155" t="n">
-        <v>19.69530662043925</v>
+        <v>19.71018496314219</v>
       </c>
       <c r="I155" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J155" t="n">
-        <v>19.69530662043925</v>
+        <v>19.71018496314219</v>
       </c>
       <c r="K155" t="n">
-        <v>0.02340106489651119</v>
+        <v>0.02308767809403569</v>
       </c>
     </row>
     <row r="156">
@@ -5880,34 +5880,34 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>19.79482925055743</v>
+        <v>19.80938415102771</v>
       </c>
       <c r="C156" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D156" t="n">
-        <v>17.99756219895319</v>
+        <v>18.02427543959411</v>
       </c>
       <c r="E156" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>17.99756219895319</v>
+        <v>18.02427543959411</v>
       </c>
       <c r="G156" t="n">
-        <v>0.02427239852989301</v>
+        <v>0.0235677463064078</v>
       </c>
       <c r="H156" t="n">
-        <v>19.79482925055743</v>
+        <v>19.80938415102771</v>
       </c>
       <c r="I156" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J156" t="n">
-        <v>19.79482925055743</v>
+        <v>19.80938415102771</v>
       </c>
       <c r="K156" t="n">
-        <v>0.02133729842760637</v>
+        <v>0.0210417739214895</v>
       </c>
     </row>
     <row r="157">
@@ -5915,34 +5915,34 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>19.89435188067562</v>
+        <v>19.90858333891322</v>
       </c>
       <c r="C157" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D157" t="n">
-        <v>18.08774232404533</v>
+        <v>18.11386193711646</v>
       </c>
       <c r="E157" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>18.08774232404533</v>
+        <v>18.11386193711646</v>
       </c>
       <c r="G157" t="n">
-        <v>0.02194695876342654</v>
+        <v>0.02130453767865529</v>
       </c>
       <c r="H157" t="n">
-        <v>19.89435188067562</v>
+        <v>19.90858333891322</v>
       </c>
       <c r="I157" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J157" t="n">
-        <v>19.89435188067562</v>
+        <v>19.90858333891322</v>
       </c>
       <c r="K157" t="n">
-        <v>0.01937069112498813</v>
+        <v>0.01909871788605115</v>
       </c>
     </row>
     <row r="158">
@@ -5950,34 +5950,34 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>19.9938745107938</v>
+        <v>20.00778252679873</v>
       </c>
       <c r="C158" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D158" t="n">
-        <v>18.17792244913748</v>
+        <v>18.2034484346388</v>
       </c>
       <c r="E158" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>18.17792244913748</v>
+        <v>18.2034484346388</v>
       </c>
       <c r="G158" t="n">
-        <v>0.01979110958096954</v>
+        <v>0.01920990290226176</v>
       </c>
       <c r="H158" t="n">
-        <v>19.9938745107938</v>
+        <v>20.00778252679873</v>
       </c>
       <c r="I158" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J158" t="n">
-        <v>19.9938745107938</v>
+        <v>20.00778252679873</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0175183997305055</v>
+        <v>0.01727010665243222</v>
       </c>
     </row>
     <row r="159">
@@ -5985,34 +5985,34 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>20.09339714091199</v>
+        <v>20.10698171468424</v>
       </c>
       <c r="C159" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D159" t="n">
-        <v>18.26810257422962</v>
+        <v>18.29303493216114</v>
       </c>
       <c r="E159" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F159" t="n">
-        <v>18.26810257422962</v>
+        <v>18.29303493216114</v>
       </c>
       <c r="G159" t="n">
-        <v>0.01779916845390261</v>
+        <v>0.01727882652601934</v>
       </c>
       <c r="H159" t="n">
-        <v>20.09339714091199</v>
+        <v>20.10698171468424</v>
       </c>
       <c r="I159" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J159" t="n">
-        <v>20.09339714091199</v>
+        <v>20.10698171468424</v>
       </c>
       <c r="K159" t="n">
-        <v>0.01577934053585276</v>
+        <v>0.0155506065030007</v>
       </c>
     </row>
     <row r="160">
@@ -6020,34 +6020,34 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>20.19291977103017</v>
+        <v>20.20618090256975</v>
       </c>
       <c r="C160" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>18.35828269932176</v>
+        <v>18.38262142968349</v>
       </c>
       <c r="E160" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F160" t="n">
-        <v>18.35828269932176</v>
+        <v>18.38262142968349</v>
       </c>
       <c r="G160" t="n">
-        <v>0.01596864205221843</v>
+        <v>0.01549933821809291</v>
       </c>
       <c r="H160" t="n">
-        <v>20.19291977103017</v>
+        <v>20.20618090256975</v>
       </c>
       <c r="I160" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J160" t="n">
-        <v>20.19291977103017</v>
+        <v>20.20618090256975</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0141539683744658</v>
+        <v>0.01394645712486922</v>
       </c>
     </row>
     <row r="161">
@@ -6055,34 +6055,34 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>20.29244240114836</v>
+        <v>20.30538009045527</v>
       </c>
       <c r="C161" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>18.4484628244139</v>
+        <v>18.47220792720583</v>
       </c>
       <c r="E161" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F161" t="n">
-        <v>18.4484628244139</v>
+        <v>18.47220792720583</v>
       </c>
       <c r="G161" t="n">
-        <v>0.01428874112485258</v>
+        <v>0.01386821593510591</v>
       </c>
       <c r="H161" t="n">
-        <v>20.29244240114836</v>
+        <v>20.30538009045527</v>
       </c>
       <c r="I161" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J161" t="n">
-        <v>20.29244240114836</v>
+        <v>20.30538009045527</v>
       </c>
       <c r="K161" t="n">
-        <v>0.0126466857650717</v>
+        <v>0.01245698572707483</v>
       </c>
     </row>
     <row r="162">
@@ -6090,34 +6090,34 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>20.39196503126654</v>
+        <v>20.40457927834078</v>
       </c>
       <c r="C162" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>18.53864294950604</v>
+        <v>18.56179442472817</v>
       </c>
       <c r="E162" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F162" t="n">
-        <v>18.53864294950604</v>
+        <v>18.56179442472817</v>
       </c>
       <c r="G162" t="n">
-        <v>0.01275083709377196</v>
+        <v>0.01238442403068999</v>
       </c>
       <c r="H162" t="n">
-        <v>20.39196503126654</v>
+        <v>20.40457927834078</v>
       </c>
       <c r="I162" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J162" t="n">
-        <v>20.39196503126654</v>
+        <v>20.40457927834078</v>
       </c>
       <c r="K162" t="n">
-        <v>0.01125336240157668</v>
+        <v>0.01108423264958692</v>
       </c>
     </row>
     <row r="163">
@@ -6125,34 +6125,34 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>20.49148766138472</v>
+        <v>20.50377846622629</v>
       </c>
       <c r="C163" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>18.62882307459818</v>
+        <v>18.65138092225051</v>
       </c>
       <c r="E163" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F163" t="n">
-        <v>18.62882307459818</v>
+        <v>18.65138092225051</v>
       </c>
       <c r="G163" t="n">
-        <v>0.01135742002872406</v>
+        <v>0.01102806116948496</v>
       </c>
       <c r="H163" t="n">
-        <v>20.49148766138472</v>
+        <v>20.50377846622629</v>
       </c>
       <c r="I163" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J163" t="n">
-        <v>20.49148766138472</v>
+        <v>20.50377846622629</v>
       </c>
       <c r="K163" t="n">
-        <v>0.00998031225869345</v>
+        <v>0.009833933097944178</v>
       </c>
     </row>
     <row r="164">
@@ -6160,34 +6160,34 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>20.59101029150291</v>
+        <v>20.6029776541118</v>
       </c>
       <c r="C164" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>18.71900319969032</v>
+        <v>18.74096741977286</v>
       </c>
       <c r="E164" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F164" t="n">
-        <v>18.71900319969032</v>
+        <v>18.74096741977286</v>
       </c>
       <c r="G164" t="n">
-        <v>0.01008490040254683</v>
+        <v>0.009788667873748746</v>
       </c>
       <c r="H164" t="n">
-        <v>20.59101029150291</v>
+        <v>20.6029776541118</v>
       </c>
       <c r="I164" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J164" t="n">
-        <v>20.59101029150291</v>
+        <v>20.6029776541118</v>
       </c>
       <c r="K164" t="n">
-        <v>0.008824515397076181</v>
+        <v>0.008693068221833362</v>
       </c>
     </row>
     <row r="165">
@@ -6195,34 +6195,34 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>20.69053292162109</v>
+        <v>20.70217684199731</v>
       </c>
       <c r="C165" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>18.80918332478246</v>
+        <v>18.8305539172952</v>
       </c>
       <c r="E165" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F165" t="n">
-        <v>18.80918332478246</v>
+        <v>18.8305539172952</v>
       </c>
       <c r="G165" t="n">
-        <v>0.008924554302708549</v>
+        <v>0.008668428205616802</v>
       </c>
       <c r="H165" t="n">
-        <v>20.69053292162109</v>
+        <v>20.70217684199731</v>
       </c>
       <c r="I165" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J165" t="n">
-        <v>20.69053292162109</v>
+        <v>20.70217684199731</v>
       </c>
       <c r="K165" t="n">
-        <v>0.007773117183848145</v>
+        <v>0.007655506885995988</v>
       </c>
     </row>
     <row r="166">
@@ -6230,34 +6230,34 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>20.79005555173928</v>
+        <v>20.80137602988282</v>
       </c>
       <c r="C166" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>18.89936344987461</v>
+        <v>18.92014041481754</v>
       </c>
       <c r="E166" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F166" t="n">
-        <v>18.89936344987461</v>
+        <v>18.92014041481754</v>
       </c>
       <c r="G166" t="n">
-        <v>0.007877766065999032</v>
+        <v>0.007651042306545377</v>
       </c>
       <c r="H166" t="n">
-        <v>20.79005555173928</v>
+        <v>20.80137602988282</v>
       </c>
       <c r="I166" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J166" t="n">
-        <v>20.79005555173928</v>
+        <v>20.80137602988282</v>
       </c>
       <c r="K166" t="n">
-        <v>0.006825620360411457</v>
+        <v>0.006723232570695457</v>
       </c>
     </row>
     <row r="167">
@@ -6265,34 +6265,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>20.88957818185746</v>
+        <v>20.90057521776833</v>
       </c>
       <c r="C167" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>18.98954357496675</v>
+        <v>19.00972691233989</v>
       </c>
       <c r="E167" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F167" t="n">
-        <v>18.98954357496675</v>
+        <v>19.00972691233989</v>
       </c>
       <c r="G167" t="n">
-        <v>0.00692854508227798</v>
+        <v>0.006728579456340643</v>
       </c>
       <c r="H167" t="n">
-        <v>20.88957818185746</v>
+        <v>20.90057521776833</v>
       </c>
       <c r="I167" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J167" t="n">
-        <v>20.88957818185746</v>
+        <v>20.90057521776833</v>
       </c>
       <c r="K167" t="n">
-        <v>0.005975033448670484</v>
+        <v>0.005886238941845919</v>
       </c>
     </row>
     <row r="168">
@@ -6300,34 +6300,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>20.98910081197565</v>
+        <v>20.99977440565385</v>
       </c>
       <c r="C168" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>19.07972370005889</v>
+        <v>19.09931340986223</v>
       </c>
       <c r="E168" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F168" t="n">
-        <v>19.07972370005889</v>
+        <v>19.09931340986223</v>
       </c>
       <c r="G168" t="n">
-        <v>0.006071426371016811</v>
+        <v>0.005896891796852001</v>
       </c>
       <c r="H168" t="n">
-        <v>20.98910081197565</v>
+        <v>20.99977440565385</v>
       </c>
       <c r="I168" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J168" t="n">
-        <v>20.98910081197565</v>
+        <v>20.99977440565385</v>
       </c>
       <c r="K168" t="n">
-        <v>0.005216859600284883</v>
+        <v>0.005143278884867653</v>
       </c>
     </row>
     <row r="169">
@@ -6335,34 +6335,34 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>21.08862344209383</v>
+        <v>21.09897359353936</v>
       </c>
       <c r="C169" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>19.16990382515103</v>
+        <v>19.18889990738457</v>
       </c>
       <c r="E169" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F169" t="n">
-        <v>19.16990382515103</v>
+        <v>19.18889990738457</v>
       </c>
       <c r="G169" t="n">
-        <v>0.005299987518831624</v>
+        <v>0.005147984244076772</v>
       </c>
       <c r="H169" t="n">
-        <v>21.08862344209383</v>
+        <v>21.09897359353936</v>
       </c>
       <c r="I169" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J169" t="n">
-        <v>21.08862344209383</v>
+        <v>21.09897359353936</v>
       </c>
       <c r="K169" t="n">
-        <v>0.004548377304096876</v>
+        <v>0.004483608164962164</v>
       </c>
     </row>
     <row r="170">
@@ -6370,34 +6370,34 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>21.18814607221201</v>
+        <v>21.19817278142487</v>
       </c>
       <c r="C170" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>19.26008395024317</v>
+        <v>19.27848640490691</v>
       </c>
       <c r="E170" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F170" t="n">
-        <v>19.26008395024317</v>
+        <v>19.27848640490691</v>
       </c>
       <c r="G170" t="n">
-        <v>0.004607180350782552</v>
+        <v>0.00447520839001305</v>
       </c>
       <c r="H170" t="n">
-        <v>21.18814607221201</v>
+        <v>21.19817278142487</v>
       </c>
       <c r="I170" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J170" t="n">
-        <v>21.18814607221201</v>
+        <v>21.19817278142487</v>
       </c>
       <c r="K170" t="n">
-        <v>0.003953726025355598</v>
+        <v>0.003896993350916608</v>
       </c>
     </row>
     <row r="171">
@@ -6405,34 +6405,34 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>21.2876687023302</v>
+        <v>21.29737196931038</v>
       </c>
       <c r="C171" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>19.35026407533531</v>
+        <v>19.36807290242926</v>
       </c>
       <c r="E171" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F171" t="n">
-        <v>19.35026407533531</v>
+        <v>19.36807290242926</v>
       </c>
       <c r="G171" t="n">
-        <v>0.003989992867157132</v>
+        <v>0.003876022400736331</v>
       </c>
       <c r="H171" t="n">
-        <v>21.2876687023302</v>
+        <v>21.29737196931038</v>
       </c>
       <c r="I171" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J171" t="n">
-        <v>21.2876687023302</v>
+        <v>21.29737196931038</v>
       </c>
       <c r="K171" t="n">
-        <v>0.003428464329425425</v>
+        <v>0.003380792947235688</v>
       </c>
     </row>
     <row r="172">
@@ -6440,34 +6440,34 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>21.38719133244838</v>
+        <v>21.39657115719589</v>
       </c>
       <c r="C172" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>19.44044420042745</v>
+        <v>19.4576593999516</v>
       </c>
       <c r="E172" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F172" t="n">
-        <v>19.44044420042745</v>
+        <v>19.4576593999516</v>
       </c>
       <c r="G172" t="n">
-        <v>0.003440099667757452</v>
+        <v>0.003341672897127325</v>
       </c>
       <c r="H172" t="n">
-        <v>21.38719133244838</v>
+        <v>21.39657115719589</v>
       </c>
       <c r="I172" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J172" t="n">
-        <v>21.38719133244838</v>
+        <v>21.39657115719589</v>
       </c>
       <c r="K172" t="n">
-        <v>0.002968798287847614</v>
+        <v>0.002927968072791791</v>
       </c>
     </row>
     <row r="173">
@@ -6475,34 +6475,34 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>21.48671396256657</v>
+        <v>21.4957703450814</v>
       </c>
       <c r="C173" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>19.53062432551959</v>
+        <v>19.54724589747394</v>
       </c>
       <c r="E173" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F173" t="n">
-        <v>19.53062432551959</v>
+        <v>19.54724589747394</v>
       </c>
       <c r="G173" t="n">
-        <v>0.002951630901081534</v>
+        <v>0.002869724047624333</v>
       </c>
       <c r="H173" t="n">
-        <v>21.48671396256657</v>
+        <v>21.4957703450814</v>
       </c>
       <c r="I173" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J173" t="n">
-        <v>21.48671396256657</v>
+        <v>21.4957703450814</v>
       </c>
       <c r="K173" t="n">
-        <v>0.00256460230204609</v>
+        <v>0.002531097053291566</v>
       </c>
     </row>
     <row r="174">
@@ -6510,34 +6510,34 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>21.58623659268475</v>
+        <v>21.59496953296691</v>
       </c>
       <c r="C174" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>19.62080445061174</v>
+        <v>19.63683239499629</v>
       </c>
       <c r="E174" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F174" t="n">
-        <v>19.62080445061174</v>
+        <v>19.63683239499629</v>
       </c>
       <c r="G174" t="n">
-        <v>0.002523318352076398</v>
+        <v>0.002452254470297838</v>
       </c>
       <c r="H174" t="n">
-        <v>21.58623659268475</v>
+        <v>21.59496953296691</v>
       </c>
       <c r="I174" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J174" t="n">
-        <v>21.58623659268475</v>
+        <v>21.59496953296691</v>
       </c>
       <c r="K174" t="n">
-        <v>0.00221342875910208</v>
+        <v>0.002185039980120312</v>
       </c>
     </row>
     <row r="175">
@@ -6545,34 +6545,34 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>21.68575922280294</v>
+        <v>21.69416872085243</v>
       </c>
       <c r="C175" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>19.71098457570388</v>
+        <v>19.72641889251863</v>
       </c>
       <c r="E175" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F175" t="n">
-        <v>19.71098457570388</v>
+        <v>19.72641889251863</v>
       </c>
       <c r="G175" t="n">
-        <v>0.00214567503513932</v>
+        <v>0.002085304839845653</v>
       </c>
       <c r="H175" t="n">
-        <v>21.68575922280294</v>
+        <v>21.69416872085243</v>
       </c>
       <c r="I175" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J175" t="n">
-        <v>21.68575922280294</v>
+        <v>21.69416872085243</v>
       </c>
       <c r="K175" t="n">
-        <v>0.001906052844263311</v>
+        <v>0.001881637058725908</v>
       </c>
     </row>
     <row r="176">
@@ -6580,34 +6580,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>21.78528185292112</v>
+        <v>21.79336790873794</v>
       </c>
       <c r="C176" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>19.80116470079601</v>
+        <v>19.81600539004097</v>
       </c>
       <c r="E176" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F176" t="n">
-        <v>19.80116470079601</v>
+        <v>19.81600539004097</v>
       </c>
       <c r="G176" t="n">
-        <v>0.001816071474260035</v>
+        <v>0.001766414488024362</v>
       </c>
       <c r="H176" t="n">
-        <v>21.78528185292112</v>
+        <v>21.79336790873794</v>
       </c>
       <c r="I176" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J176" t="n">
-        <v>21.78528185292112</v>
+        <v>21.79336790873794</v>
       </c>
       <c r="K176" t="n">
-        <v>0.001637695047473723</v>
+        <v>0.001617770682607766</v>
       </c>
     </row>
     <row r="177">
@@ -6615,34 +6615,34 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>21.88480448303931</v>
+        <v>21.89256709662345</v>
       </c>
       <c r="C177" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>19.89134482588816</v>
+        <v>19.90559188756331</v>
       </c>
       <c r="E177" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>19.89134482588816</v>
+        <v>19.90559188756331</v>
       </c>
       <c r="G177" t="n">
-        <v>0.001531572414573843</v>
+        <v>0.001490771738681466</v>
       </c>
       <c r="H177" t="n">
-        <v>21.88480448303931</v>
+        <v>21.89256709662345</v>
       </c>
       <c r="I177" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J177" t="n">
-        <v>21.88480448303931</v>
+        <v>21.89256709662345</v>
       </c>
       <c r="K177" t="n">
-        <v>0.001404436999098312</v>
+        <v>0.001387344621696605</v>
       </c>
     </row>
     <row r="178">
@@ -6650,34 +6650,34 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>21.98432711315749</v>
+        <v>21.99176628450896</v>
       </c>
       <c r="C178" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>19.9815249509803</v>
+        <v>19.99517838508566</v>
       </c>
       <c r="E178" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>19.9815249509803</v>
+        <v>19.99517838508566</v>
       </c>
       <c r="G178" t="n">
-        <v>0.001286478250921151</v>
+        <v>0.001252280581115888</v>
       </c>
       <c r="H178" t="n">
-        <v>21.98432711315749</v>
+        <v>21.99176628450896</v>
       </c>
       <c r="I178" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J178" t="n">
-        <v>21.98432711315749</v>
+        <v>21.99176628450896</v>
       </c>
       <c r="K178" t="n">
-        <v>0.001200391106879154</v>
+        <v>0.001185904103424237</v>
       </c>
     </row>
     <row r="179">
@@ -6685,34 +6685,34 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>22.08384974327567</v>
+        <v>22.09096547239447</v>
       </c>
       <c r="C179" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>20.07170507607244</v>
+        <v>20.084764882608</v>
       </c>
       <c r="E179" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>20.07170507607244</v>
+        <v>20.084764882608</v>
       </c>
       <c r="G179" t="n">
-        <v>0.001076460375779149</v>
+        <v>0.001048578179564213</v>
       </c>
       <c r="H179" t="n">
-        <v>22.08384974327567</v>
+        <v>22.09096547239447</v>
       </c>
       <c r="I179" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J179" t="n">
-        <v>22.08384974327567</v>
+        <v>22.09096547239447</v>
       </c>
       <c r="K179" t="n">
-        <v>0.001023349006053222</v>
+        <v>0.001011748538196554</v>
       </c>
     </row>
     <row r="180">
@@ -6720,34 +6720,34 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>22.18337237339386</v>
+        <v>22.19016466027999</v>
       </c>
       <c r="C180" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D180" t="n">
-        <v>20.16188520116458</v>
+        <v>20.17435138013034</v>
       </c>
       <c r="E180" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>20.16188520116458</v>
+        <v>20.17435138013034</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0008971595939213325</v>
+        <v>0.0008746212373515858</v>
       </c>
       <c r="H180" t="n">
-        <v>22.18337237339386</v>
+        <v>22.19016466027999</v>
       </c>
       <c r="I180" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J180" t="n">
-        <v>22.18337237339386</v>
+        <v>22.19016466027999</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0008700427661938853</v>
+        <v>0.000860642621504662</v>
       </c>
     </row>
     <row r="181">
@@ -6755,34 +6755,34 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>22.28289500351205</v>
+        <v>22.2893638481655</v>
       </c>
       <c r="C181" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>20.25206532625673</v>
+        <v>20.26393787765269</v>
       </c>
       <c r="E181" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>20.25206532625673</v>
+        <v>20.26393787765269</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0007451189938499311</v>
+        <v>0.0007269126151754897</v>
       </c>
       <c r="H181" t="n">
-        <v>22.28289500351205</v>
+        <v>22.2893638481655</v>
       </c>
       <c r="I181" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J181" t="n">
-        <v>22.28289500351205</v>
+        <v>22.2893638481655</v>
       </c>
       <c r="K181" t="n">
-        <v>0.000739750650067828</v>
+        <v>0.0007320082720433259</v>
       </c>
     </row>
     <row r="182">
@@ -6790,34 +6790,34 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>22.38241763363023</v>
+        <v>22.38856303605101</v>
       </c>
       <c r="C182" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D182" t="n">
-        <v>20.34224545134887</v>
+        <v>20.35352437517503</v>
       </c>
       <c r="E182" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>20.34224545134887</v>
+        <v>20.35352437517503</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0006170278360167371</v>
+        <v>0.0006027398363037907</v>
       </c>
       <c r="H182" t="n">
-        <v>22.38241763363023</v>
+        <v>22.38856303605101</v>
       </c>
       <c r="I182" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J182" t="n">
-        <v>22.38241763363023</v>
+        <v>22.38856303605101</v>
       </c>
       <c r="K182" t="n">
-        <v>0.0006270442225714936</v>
+        <v>0.0006205071265229531</v>
       </c>
     </row>
     <row r="183">
@@ -6825,34 +6825,34 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>22.48194026374841</v>
+        <v>22.48776222393652</v>
       </c>
       <c r="C183" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D183" t="n">
-        <v>20.43242557644101</v>
+        <v>20.44311087269737</v>
       </c>
       <c r="E183" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>20.43242557644101</v>
+        <v>20.44311087269737</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0005100048783624774</v>
+        <v>0.0004985308990091933</v>
       </c>
       <c r="H183" t="n">
-        <v>22.48194026374841</v>
+        <v>22.48776222393652</v>
       </c>
       <c r="I183" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J183" t="n">
-        <v>22.48194026374841</v>
+        <v>22.48776222393652</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0005290381079386896</v>
+        <v>0.0005235499975494364</v>
       </c>
     </row>
     <row r="184">
@@ -6860,34 +6860,34 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>22.5814628938666</v>
+        <v>22.58696141182203</v>
       </c>
       <c r="C184" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D184" t="n">
-        <v>20.52260570153314</v>
+        <v>20.53269737021972</v>
       </c>
       <c r="E184" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>20.52260570153314</v>
+        <v>20.53269737021972</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0004205015079361543</v>
+        <v>0.0004115243589384272</v>
       </c>
       <c r="H184" t="n">
-        <v>22.5814628938666</v>
+        <v>22.58696141182203</v>
       </c>
       <c r="I184" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J184" t="n">
-        <v>22.5814628938666</v>
+        <v>22.58696141182203</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0004443513539033195</v>
+        <v>0.0004400598408973413</v>
       </c>
     </row>
     <row r="185">
@@ -6895,34 +6895,34 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>22.68098552398478</v>
+        <v>22.68616059970755</v>
       </c>
       <c r="C185" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>20.61278582662529</v>
+        <v>20.62228386774206</v>
       </c>
       <c r="E185" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>20.61278582662529</v>
+        <v>20.62228386774206</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0003466311709357002</v>
+        <v>0.0003397355374397373</v>
       </c>
       <c r="H185" t="n">
-        <v>22.68098552398478</v>
+        <v>22.68616059970755</v>
       </c>
       <c r="I185" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J185" t="n">
-        <v>22.68098552398478</v>
+        <v>22.68616059970755</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0003725483656228431</v>
+        <v>0.0003692229973214913</v>
       </c>
     </row>
     <row r="186">
@@ -6930,34 +6930,34 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>22.78050815410297</v>
+        <v>22.78535978759306</v>
       </c>
       <c r="C186" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>20.70296595171743</v>
+        <v>20.7118703652644</v>
       </c>
       <c r="E186" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>20.70296595171743</v>
+        <v>20.7118703652644</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0002866798460732448</v>
+        <v>0.0002812930063784593</v>
       </c>
       <c r="H186" t="n">
-        <v>22.78050815410297</v>
+        <v>22.78535978759306</v>
       </c>
       <c r="I186" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J186" t="n">
-        <v>22.78050815410297</v>
+        <v>22.78535978759306</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0003112149672352632</v>
+        <v>0.0003084935050308085</v>
       </c>
     </row>
     <row r="187">
@@ -6965,34 +6965,34 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>22.88003078422115</v>
+        <v>22.88455897547857</v>
       </c>
       <c r="C187" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D187" t="n">
-        <v>20.79314607680957</v>
+        <v>20.80145686278675</v>
       </c>
       <c r="E187" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>20.79314607680957</v>
+        <v>20.80145686278675</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0002366192441349422</v>
+        <v>0.0002325406144567068</v>
       </c>
       <c r="H187" t="n">
-        <v>22.88003078422115</v>
+        <v>22.88455897547857</v>
       </c>
       <c r="I187" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J187" t="n">
-        <v>22.88003078422115</v>
+        <v>22.88455897547857</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0002589593931659758</v>
+        <v>0.0002567525425637717</v>
       </c>
     </row>
     <row r="188">
@@ -7000,34 +7000,34 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>22.97955341433934</v>
+        <v>22.98375816336408</v>
       </c>
       <c r="C188" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D188" t="n">
-        <v>20.88332620190171</v>
+        <v>20.89104336030909</v>
       </c>
       <c r="E188" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>20.88332620190171</v>
+        <v>20.89104336030909</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0001952925935271016</v>
+        <v>0.0001921381727452869</v>
       </c>
       <c r="H188" t="n">
-        <v>22.97955341433934</v>
+        <v>22.98375816336408</v>
       </c>
       <c r="I188" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J188" t="n">
-        <v>22.97955341433934</v>
+        <v>22.98375816336408</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0002147451489890636</v>
+        <v>0.0002129738793873096</v>
       </c>
     </row>
     <row r="189">
@@ -7035,34 +7035,34 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>23.07907604445752</v>
+        <v>23.08295735124959</v>
       </c>
       <c r="C189" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D189" t="n">
-        <v>20.97350632699386</v>
+        <v>20.98062985783143</v>
       </c>
       <c r="E189" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>20.97350632699386</v>
+        <v>20.98062985783143</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0001622683081766394</v>
+        <v>0.0001599436896870754</v>
       </c>
       <c r="H189" t="n">
-        <v>23.07907604445752</v>
+        <v>23.08295735124959</v>
       </c>
       <c r="I189" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J189" t="n">
-        <v>23.07907604445752</v>
+        <v>23.08295735124959</v>
       </c>
       <c r="K189" t="n">
-        <v>0.0001778314453816778</v>
+        <v>0.0001765270531863703</v>
       </c>
     </row>
     <row r="190">
@@ -7070,34 +7070,34 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>23.1785986745757</v>
+        <v>23.18215653913511</v>
       </c>
       <c r="C190" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>21.063686452086</v>
+        <v>21.07021635535378</v>
       </c>
       <c r="E190" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>21.063686452086</v>
+        <v>21.07021635535378</v>
       </c>
       <c r="G190" t="n">
-        <v>0.000135578672854552</v>
+        <v>0.0001337617674427268</v>
       </c>
       <c r="H190" t="n">
-        <v>23.1785986745757</v>
+        <v>23.18215653913511</v>
       </c>
       <c r="I190" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J190" t="n">
-        <v>23.1785986745757</v>
+        <v>23.18215653913511</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0001475870730171895</v>
+        <v>0.0001466983264261869</v>
       </c>
     </row>
     <row r="191">
@@ -7105,34 +7105,34 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>23.27812130469389</v>
+        <v>23.28135572702062</v>
       </c>
       <c r="C191" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D191" t="n">
-        <v>21.15386657717814</v>
+        <v>21.15980285287612</v>
       </c>
       <c r="E191" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>21.15386657717814</v>
+        <v>21.15980285287612</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0001137244871042767</v>
+        <v>0.0001124781869012677</v>
       </c>
       <c r="H191" t="n">
-        <v>23.27812130469389</v>
+        <v>23.28135572702062</v>
       </c>
       <c r="I191" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J191" t="n">
-        <v>23.27812130469389</v>
+        <v>23.28135572702062</v>
       </c>
       <c r="K191" t="n">
-        <v>0.0001238258059772414</v>
+        <v>0.000123139440456788</v>
       </c>
     </row>
     <row r="192">
@@ -7140,34 +7140,34 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>23.37764393481207</v>
+        <v>23.38055491490613</v>
       </c>
       <c r="C192" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>21.24404670227027</v>
+        <v>21.24938935039846</v>
       </c>
       <c r="E192" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>21.24404670227027</v>
+        <v>21.24938935039846</v>
       </c>
       <c r="G192" t="n">
-        <v>9.613018090431071e-05</v>
+        <v>9.520387499427394e-05</v>
       </c>
       <c r="H192" t="n">
-        <v>23.37764393481207</v>
+        <v>23.38055491490613</v>
       </c>
       <c r="I192" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J192" t="n">
-        <v>23.37764393481207</v>
+        <v>23.38055491490613</v>
       </c>
       <c r="K192" t="n">
-        <v>0.0001042111411687229</v>
+        <v>0.0001036904916583766</v>
       </c>
     </row>
     <row r="193">
@@ -7175,34 +7175,34 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>23.47716656493026</v>
+        <v>23.47975410279164</v>
       </c>
       <c r="C193" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>21.33422682736242</v>
+        <v>21.3389758479208</v>
       </c>
       <c r="E193" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>21.33422682736242</v>
+        <v>21.3389758479208</v>
       </c>
       <c r="G193" t="n">
-        <v>8.205553436894116e-05</v>
+        <v>8.141142812734771e-05</v>
       </c>
       <c r="H193" t="n">
-        <v>23.47716656493026</v>
+        <v>23.47975410279164</v>
       </c>
       <c r="I193" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J193" t="n">
-        <v>23.47716656493026</v>
+        <v>23.47975410279164</v>
       </c>
       <c r="K193" t="n">
-        <v>8.823206866304318e-05</v>
+        <v>8.786706715959932e-05</v>
       </c>
     </row>
     <row r="194">
@@ -7210,34 +7210,34 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>23.57668919504844</v>
+        <v>23.57895329067715</v>
       </c>
       <c r="C194" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>21.42440695245456</v>
+        <v>21.42856234544315</v>
       </c>
       <c r="E194" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>21.42440695245456</v>
+        <v>21.42856234544315</v>
       </c>
       <c r="G194" t="n">
-        <v>7.088938101835168e-05</v>
+        <v>7.042874319036768e-05</v>
       </c>
       <c r="H194" t="n">
-        <v>23.57668919504844</v>
+        <v>23.57895329067715</v>
       </c>
       <c r="I194" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J194" t="n">
-        <v>23.57668919504844</v>
+        <v>23.57895329067715</v>
       </c>
       <c r="K194" t="n">
-        <v>7.543125710603873e-05</v>
+        <v>7.516630090926786e-05</v>
       </c>
     </row>
     <row r="195">
@@ -7245,34 +7245,34 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>23.67621182516663</v>
+        <v>23.67815247856267</v>
       </c>
       <c r="C195" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>21.5145870775467</v>
+        <v>21.51814884296549</v>
       </c>
       <c r="E195" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>21.5145870775467</v>
+        <v>21.51814884296549</v>
       </c>
       <c r="G195" t="n">
-        <v>6.211864160810454e-05</v>
+        <v>6.179897794808797e-05</v>
       </c>
       <c r="H195" t="n">
-        <v>23.67621182516663</v>
+        <v>23.67815247856267</v>
       </c>
       <c r="I195" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J195" t="n">
-        <v>23.67621182516663</v>
+        <v>23.67815247856267</v>
       </c>
       <c r="K195" t="n">
-        <v>6.520214464450624e-05</v>
+        <v>6.50153262704782e-05</v>
       </c>
     </row>
     <row r="196">
@@ -7280,34 +7280,34 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>23.77573445528481</v>
+        <v>23.77735166644818</v>
       </c>
       <c r="C196" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>21.60476720263884</v>
+        <v>21.60773534048783</v>
       </c>
       <c r="E196" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>21.60476720263884</v>
+        <v>21.60773534048783</v>
       </c>
       <c r="G196" t="n">
-        <v>5.599888238284468e-05</v>
+        <v>5.585506377843537e-05</v>
       </c>
       <c r="H196" t="n">
-        <v>23.77573445528481</v>
+        <v>23.77735166644818</v>
       </c>
       <c r="I196" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J196" t="n">
-        <v>23.77573445528481</v>
+        <v>23.77735166644818</v>
       </c>
       <c r="K196" t="n">
-        <v>5.72306135440575e-05</v>
+        <v>5.712208601390047e-05</v>
       </c>
     </row>
     <row r="197">
@@ -7315,34 +7315,34 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>23.875257085403</v>
+        <v>23.87655085433369</v>
       </c>
       <c r="C197" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>21.69494732773099</v>
+        <v>21.69732183801018</v>
       </c>
       <c r="E197" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>21.69494732773099</v>
+        <v>21.69732183801018</v>
       </c>
       <c r="G197" t="n">
-        <v>5.180172559865734e-05</v>
+        <v>5.17102431884979e-05</v>
       </c>
       <c r="H197" t="n">
-        <v>23.875257085403</v>
+        <v>23.87655085433369</v>
       </c>
       <c r="I197" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J197" t="n">
-        <v>23.875257085403</v>
+        <v>23.87655085433369</v>
       </c>
       <c r="K197" t="n">
-        <v>5.10739231000597e-05</v>
+        <v>5.100439918822222e-05</v>
       </c>
     </row>
     <row r="198">
@@ -7350,34 +7350,34 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>23.97477971552118</v>
+        <v>23.9757500422192</v>
       </c>
       <c r="C198" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>21.78512745282313</v>
+        <v>21.78690833553252</v>
       </c>
       <c r="E198" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>21.78512745282313</v>
+        <v>21.78690833553252</v>
       </c>
       <c r="G198" t="n">
-        <v>4.859046180181842e-05</v>
+        <v>4.853652267028916e-05</v>
       </c>
       <c r="H198" t="n">
-        <v>23.97477971552118</v>
+        <v>23.9757500422192</v>
       </c>
       <c r="I198" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J198" t="n">
-        <v>23.97477971552118</v>
+        <v>23.9757500422192</v>
       </c>
       <c r="K198" t="n">
-        <v>4.723794288475798e-05</v>
+        <v>4.720555386594339e-05</v>
       </c>
     </row>
     <row r="199">
@@ -7385,34 +7385,34 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>24.07430234563936</v>
+        <v>24.07494923010471</v>
       </c>
       <c r="C199" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>21.87530757791527</v>
+        <v>21.87649483305486</v>
       </c>
       <c r="E199" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F199" t="n">
-        <v>21.87530757791527</v>
+        <v>21.87649483305486</v>
       </c>
       <c r="G199" t="n">
-        <v>4.617283298779582e-05</v>
+        <v>4.614488489683023e-05</v>
       </c>
       <c r="H199" t="n">
-        <v>24.07430234563936</v>
+        <v>24.07494923010471</v>
       </c>
       <c r="I199" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J199" t="n">
-        <v>24.07430234563936</v>
+        <v>24.07494923010471</v>
       </c>
       <c r="K199" t="n">
-        <v>4.42872247111921e-05</v>
+        <v>4.427006251247863e-05</v>
       </c>
     </row>
     <row r="200">
@@ -7420,34 +7420,34 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>24.17382497575755</v>
+        <v>24.17414841799022</v>
       </c>
       <c r="C200" t="n">
         <v>2.508641560613742e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>21.9654877030074</v>
+        <v>21.9660813305772</v>
       </c>
       <c r="E200" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>21.9654877030074</v>
+        <v>21.9660813305772</v>
       </c>
       <c r="G200" t="n">
-        <v>4.43829684859722e-05</v>
+        <v>4.437223191139147e-05</v>
       </c>
       <c r="H200" t="n">
-        <v>24.17382497575755</v>
+        <v>24.17414841799022</v>
       </c>
       <c r="I200" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J200" t="n">
-        <v>24.17382497575755</v>
+        <v>24.17414841799022</v>
       </c>
       <c r="K200" t="n">
-        <v>4.203829639436714e-05</v>
+        <v>4.203154193916945e-05</v>
       </c>
     </row>
     <row r="201">
@@ -7464,7 +7464,7 @@
         <v>22.05566782809955</v>
       </c>
       <c r="E201" t="n">
-        <v>5.641360233017332e-05</v>
+        <v>5.001589319813674e-05</v>
       </c>
       <c r="F201" t="n">
         <v>22.05566782809955</v>
@@ -7476,7 +7476,7 @@
         <v>24.27334760587573</v>
       </c>
       <c r="I201" t="n">
-        <v>5.826922633811127e-05</v>
+        <v>5.278056413057084e-05</v>
       </c>
       <c r="J201" t="n">
         <v>24.27334760587573</v>
